--- a/Model/node_lists.xlsx
+++ b/Model/node_lists.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lprieto\Desktop\NC State\2. Research\ARPA\New model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkern\Documents\GitHub\NCGridMod\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7220" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="generation_only" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="8">
   <si>
     <t>station</t>
   </si>
@@ -49,7 +49,7 @@
     <t>typ</t>
   </si>
   <si>
-    <t>Name_v_id</t>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1574,16 +1574,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B338"/>
+  <dimension ref="A1:B335"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.54296875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1596,15 +1597,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>13780</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>6657</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1612,39 +1613,39 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>6699</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2416</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>6646</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6682</v>
+        <v>1506</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>9820</v>
+        <v>1508</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1652,39 +1653,39 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>7047</v>
+        <v>1517</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>28766</v>
+        <v>1572</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>6916</v>
+        <v>1575</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>6967</v>
+        <v>1586</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1508</v>
+        <v>1754</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1692,7 +1693,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>6940</v>
+        <v>1837</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1700,7 +1701,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>7014</v>
+        <v>1850</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1708,31 +1709,31 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>28767</v>
+        <v>1851</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>29001</v>
+        <v>1924</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>9841</v>
+        <v>2042</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>7041</v>
+        <v>2415</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1740,7 +1741,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>6402</v>
+        <v>2416</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1748,7 +1749,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>6662</v>
+        <v>2417</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1756,23 +1757,23 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>4496</v>
+        <v>2907</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>29016</v>
+        <v>3087</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>9876</v>
+        <v>3088</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -1780,31 +1781,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>6904</v>
+        <v>3484</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>28771</v>
+        <v>3485</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>28998</v>
+        <v>3493</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>10052</v>
+        <v>3494</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -1812,55 +1813,55 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>10051</v>
+        <v>3497</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>3494</v>
+        <v>3498</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>12439</v>
+        <v>4095</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>28993</v>
+        <v>4096</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>9862</v>
+        <v>4098</v>
       </c>
       <c r="B33" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>6894</v>
+        <v>4099</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>6677</v>
+        <v>4166</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1868,23 +1869,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>340</v>
+        <v>4169</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>16490</v>
+        <v>4459</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>10123</v>
+        <v>4475</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -1892,15 +1893,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>6674</v>
+        <v>4484</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>10013</v>
+        <v>4496</v>
       </c>
       <c r="B40" t="s">
         <v>0</v>
@@ -1908,23 +1909,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>11856</v>
+        <v>4517</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>6969</v>
+        <v>5117</v>
       </c>
       <c r="B42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>13841</v>
+        <v>5608</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -1932,39 +1933,39 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>9488</v>
+        <v>6131</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>10012</v>
+        <v>6400</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>28700</v>
+        <v>6402</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2042</v>
+        <v>6404</v>
       </c>
       <c r="B47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>7590</v>
+        <v>6405</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1972,7 +1973,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>4169</v>
+        <v>6422</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
@@ -1980,7 +1981,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>6691</v>
+        <v>6423</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -1988,31 +1989,31 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>9480</v>
+        <v>6586</v>
       </c>
       <c r="B51" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>6685</v>
+        <v>6641</v>
       </c>
       <c r="B52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>7591</v>
+        <v>6646</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>14301</v>
+        <v>6647</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -2020,15 +2021,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>15664</v>
+        <v>6652</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>6687</v>
+        <v>6657</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2036,47 +2037,47 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>28669</v>
+        <v>6658</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>28954</v>
+        <v>6659</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>1837</v>
+        <v>6661</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>6690</v>
+        <v>6662</v>
       </c>
       <c r="B60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>7607</v>
+        <v>6663</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>4098</v>
+        <v>6664</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -2084,55 +2085,55 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>6641</v>
+        <v>6667</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>6897</v>
+        <v>6668</v>
       </c>
       <c r="B64" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>9868</v>
+        <v>6669</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>29284</v>
+        <v>6670</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>28697</v>
+        <v>6671</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>10016</v>
+        <v>6673</v>
       </c>
       <c r="B68" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>10024</v>
+        <v>6674</v>
       </c>
       <c r="B69" t="s">
         <v>1</v>
@@ -2140,55 +2141,55 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>11742</v>
+        <v>6675</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>6670</v>
+        <v>6676</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>4099</v>
+        <v>6677</v>
       </c>
       <c r="B72" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>29240</v>
+        <v>6681</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>9835</v>
+        <v>6682</v>
       </c>
       <c r="B74" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>6667</v>
+        <v>6684</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>6673</v>
+        <v>6685</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
@@ -2196,7 +2197,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>16911</v>
+        <v>6687</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -2204,55 +2205,55 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>6977</v>
+        <v>6688</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>10058</v>
+        <v>6689</v>
       </c>
       <c r="B79" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>15689</v>
+        <v>6690</v>
       </c>
       <c r="B80" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>6664</v>
+        <v>6691</v>
       </c>
       <c r="B81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>10048</v>
+        <v>6692</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>7589</v>
+        <v>6697</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>17632</v>
+        <v>6698</v>
       </c>
       <c r="B84" t="s">
         <v>1</v>
@@ -2260,7 +2261,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>9454</v>
+        <v>6699</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
@@ -2268,7 +2269,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>15776</v>
+        <v>6700</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -2276,15 +2277,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>28718</v>
+        <v>6703</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>9455</v>
+        <v>6889</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -2292,7 +2293,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>9887</v>
+        <v>6892</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
@@ -2300,7 +2301,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>9418</v>
+        <v>6893</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -2308,31 +2309,31 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>9852</v>
+        <v>6894</v>
       </c>
       <c r="B91" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>328</v>
+        <v>6895</v>
       </c>
       <c r="B92" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>4095</v>
+        <v>6897</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>9479</v>
+        <v>6900</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -2340,7 +2341,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>14283</v>
+        <v>6901</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -2348,31 +2349,31 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>28211</v>
+        <v>6902</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>28951</v>
+        <v>6903</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>9864</v>
+        <v>6904</v>
       </c>
       <c r="B98" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>6131</v>
+        <v>6905</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -2380,47 +2381,47 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>6669</v>
+        <v>6906</v>
       </c>
       <c r="B100" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>6692</v>
+        <v>6912</v>
       </c>
       <c r="B101" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>6900</v>
+        <v>6916</v>
       </c>
       <c r="B102" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>9507</v>
+        <v>6922</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>9832</v>
+        <v>6940</v>
       </c>
       <c r="B104" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>12417</v>
+        <v>6954</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -2428,23 +2429,23 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>15632</v>
+        <v>6964</v>
       </c>
       <c r="B106" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>28671</v>
+        <v>6965</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>9458</v>
+        <v>6967</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
@@ -2452,95 +2453,95 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>325</v>
+        <v>6968</v>
       </c>
       <c r="B109" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>6663</v>
+        <v>6969</v>
       </c>
       <c r="B110" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>7091</v>
+        <v>6971</v>
       </c>
       <c r="B111" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>28710</v>
+        <v>6972</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>3493</v>
+        <v>6974</v>
       </c>
       <c r="B113" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>15628</v>
+        <v>6976</v>
       </c>
       <c r="B114" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>6980</v>
+        <v>6977</v>
       </c>
       <c r="B115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>9885</v>
+        <v>6978</v>
       </c>
       <c r="B116" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>28704</v>
+        <v>6980</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>7699</v>
+        <v>6981</v>
       </c>
       <c r="B118" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>9859</v>
+        <v>6984</v>
       </c>
       <c r="B119" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>16281</v>
+        <v>6986</v>
       </c>
       <c r="B120" t="s">
         <v>1</v>
@@ -2548,71 +2549,71 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>28665</v>
+        <v>6987</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>6698</v>
+        <v>6991</v>
       </c>
       <c r="B122" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>6964</v>
+        <v>7014</v>
       </c>
       <c r="B123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>10124</v>
+        <v>7041</v>
       </c>
       <c r="B124" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>10038</v>
+        <v>7044</v>
       </c>
       <c r="B125" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>6986</v>
+        <v>7045</v>
       </c>
       <c r="B126" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>9439</v>
+        <v>7047</v>
       </c>
       <c r="B127" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>1851</v>
+        <v>7049</v>
       </c>
       <c r="B128" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>10054</v>
+        <v>7050</v>
       </c>
       <c r="B129" t="s">
         <v>1</v>
@@ -2620,47 +2621,47 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>1506</v>
+        <v>7062</v>
       </c>
       <c r="B130" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>9877</v>
+        <v>7066</v>
       </c>
       <c r="B131" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>218</v>
+        <v>7089</v>
       </c>
       <c r="B132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>29255</v>
+        <v>7091</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>3498</v>
+        <v>7092</v>
       </c>
       <c r="B134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>15666</v>
+        <v>7566</v>
       </c>
       <c r="B135" t="s">
         <v>1</v>
@@ -2668,7 +2669,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>7597</v>
+        <v>7587</v>
       </c>
       <c r="B136" t="s">
         <v>2</v>
@@ -2676,15 +2677,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>9830</v>
+        <v>7588</v>
       </c>
       <c r="B137" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>9412</v>
+        <v>7589</v>
       </c>
       <c r="B138" t="s">
         <v>2</v>
@@ -2692,7 +2693,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>6671</v>
+        <v>7590</v>
       </c>
       <c r="B139" t="s">
         <v>1</v>
@@ -2700,15 +2701,15 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>1517</v>
+        <v>7591</v>
       </c>
       <c r="B140" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>9440</v>
+        <v>7592</v>
       </c>
       <c r="B141" t="s">
         <v>1</v>
@@ -2716,23 +2717,23 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>9846</v>
+        <v>7597</v>
       </c>
       <c r="B142" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>10014</v>
+        <v>7607</v>
       </c>
       <c r="B143" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>14626</v>
+        <v>7619</v>
       </c>
       <c r="B144" t="s">
         <v>1</v>
@@ -2740,23 +2741,23 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>28707</v>
+        <v>7699</v>
       </c>
       <c r="B145" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>28668</v>
+        <v>7700</v>
       </c>
       <c r="B146" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>9872</v>
+        <v>7701</v>
       </c>
       <c r="B147" t="s">
         <v>1</v>
@@ -2764,7 +2765,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>15629</v>
+        <v>7702</v>
       </c>
       <c r="B148" t="s">
         <v>1</v>
@@ -2772,7 +2773,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>9414</v>
+        <v>7703</v>
       </c>
       <c r="B149" t="s">
         <v>1</v>
@@ -2780,7 +2781,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>9483</v>
+        <v>9412</v>
       </c>
       <c r="B150" t="s">
         <v>2</v>
@@ -2788,15 +2789,15 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>326</v>
+        <v>9413</v>
       </c>
       <c r="B151" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>1572</v>
+        <v>9414</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -2804,15 +2805,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>3484</v>
+        <v>9418</v>
       </c>
       <c r="B153" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>7066</v>
+        <v>9419</v>
       </c>
       <c r="B154" t="s">
         <v>1</v>
@@ -2820,7 +2821,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>12432</v>
+        <v>9439</v>
       </c>
       <c r="B155" t="s">
         <v>1</v>
@@ -2828,31 +2829,31 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>28955</v>
+        <v>9440</v>
       </c>
       <c r="B156" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>29024</v>
+        <v>9453</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>9869</v>
+        <v>9454</v>
       </c>
       <c r="B158" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>6893</v>
+        <v>9455</v>
       </c>
       <c r="B159" t="s">
         <v>1</v>
@@ -2860,15 +2861,15 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>14194</v>
+        <v>9457</v>
       </c>
       <c r="B160" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>15512</v>
+        <v>9458</v>
       </c>
       <c r="B161" t="s">
         <v>1</v>
@@ -2876,15 +2877,15 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>28666</v>
+        <v>9477</v>
       </c>
       <c r="B162" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>7092</v>
+        <v>9479</v>
       </c>
       <c r="B163" t="s">
         <v>1</v>
@@ -2892,7 +2893,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>11731</v>
+        <v>9480</v>
       </c>
       <c r="B164" t="s">
         <v>0</v>
@@ -2900,47 +2901,47 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>10875</v>
+        <v>9483</v>
       </c>
       <c r="B165" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>7588</v>
+        <v>9484</v>
       </c>
       <c r="B166" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>29275</v>
+        <v>9487</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>2417</v>
+        <v>9488</v>
       </c>
       <c r="B168" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>1924</v>
+        <v>9507</v>
       </c>
       <c r="B169" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>9874</v>
+        <v>9508</v>
       </c>
       <c r="B170" t="s">
         <v>1</v>
@@ -2948,7 +2949,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>9821</v>
+        <v>9820</v>
       </c>
       <c r="B171" t="s">
         <v>0</v>
@@ -2956,55 +2957,55 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>15775</v>
+        <v>9821</v>
       </c>
       <c r="B172" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>9829</v>
+        <v>9822</v>
       </c>
       <c r="B173" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>10029</v>
+        <v>9823</v>
       </c>
       <c r="B174" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>9453</v>
+        <v>9825</v>
       </c>
       <c r="B175" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>10835</v>
+        <v>9829</v>
       </c>
       <c r="B176" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>14783</v>
+        <v>9830</v>
       </c>
       <c r="B177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>7050</v>
+        <v>9831</v>
       </c>
       <c r="B178" t="s">
         <v>1</v>
@@ -3012,31 +3013,31 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>13431</v>
+        <v>9832</v>
       </c>
       <c r="B179" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>28945</v>
+        <v>9833</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>29020</v>
+        <v>9834</v>
       </c>
       <c r="B181" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>6922</v>
+        <v>9835</v>
       </c>
       <c r="B182" t="s">
         <v>0</v>
@@ -3044,39 +3045,39 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>28947</v>
+        <v>9836</v>
       </c>
       <c r="B183" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>6906</v>
+        <v>9837</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>6972</v>
+        <v>9838</v>
       </c>
       <c r="B185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>28699</v>
+        <v>9841</v>
       </c>
       <c r="B186" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>1754</v>
+        <v>9846</v>
       </c>
       <c r="B187" t="s">
         <v>0</v>
@@ -3084,103 +3085,103 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>12430</v>
+        <v>9849</v>
       </c>
       <c r="B188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>15511</v>
+        <v>9852</v>
       </c>
       <c r="B189" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>28670</v>
+        <v>9858</v>
       </c>
       <c r="B190" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>9867</v>
+        <v>9859</v>
       </c>
       <c r="B191" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>6681</v>
+        <v>9862</v>
       </c>
       <c r="B192" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>14258</v>
+        <v>9863</v>
       </c>
       <c r="B193" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>6981</v>
+        <v>9864</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>6976</v>
+        <v>9865</v>
       </c>
       <c r="B195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>17163</v>
+        <v>9866</v>
       </c>
       <c r="B196" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>28652</v>
+        <v>9867</v>
       </c>
       <c r="B197" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>29226</v>
+        <v>9868</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>7587</v>
+        <v>9869</v>
       </c>
       <c r="B199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>9836</v>
+        <v>9870</v>
       </c>
       <c r="B200" t="s">
         <v>0</v>
@@ -3188,47 +3189,47 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>13843</v>
+        <v>9871</v>
       </c>
       <c r="B201" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>28501</v>
+        <v>9872</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>4517</v>
+        <v>9874</v>
       </c>
       <c r="B203" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>17072</v>
+        <v>9876</v>
       </c>
       <c r="B204" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>28999</v>
+        <v>9877</v>
       </c>
       <c r="B205" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>4475</v>
+        <v>9881</v>
       </c>
       <c r="B206" t="s">
         <v>0</v>
@@ -3236,15 +3237,15 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>29017</v>
+        <v>9885</v>
       </c>
       <c r="B207" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>1850</v>
+        <v>9886</v>
       </c>
       <c r="B208" t="s">
         <v>1</v>
@@ -3252,55 +3253,55 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>6668</v>
+        <v>9887</v>
       </c>
       <c r="B209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>7619</v>
+        <v>9994</v>
       </c>
       <c r="B210" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>9508</v>
+        <v>9995</v>
       </c>
       <c r="B211" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>9822</v>
+        <v>10002</v>
       </c>
       <c r="B212" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>17633</v>
+        <v>10012</v>
       </c>
       <c r="B213" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>1575</v>
+        <v>10013</v>
       </c>
       <c r="B214" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>9994</v>
+        <v>10014</v>
       </c>
       <c r="B215" t="s">
         <v>0</v>
@@ -3308,7 +3309,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>9881</v>
+        <v>10016</v>
       </c>
       <c r="B216" t="s">
         <v>0</v>
@@ -3316,7 +3317,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>7702</v>
+        <v>10022</v>
       </c>
       <c r="B217" t="s">
         <v>1</v>
@@ -3324,15 +3325,15 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>7049</v>
+        <v>10024</v>
       </c>
       <c r="B218" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>11709</v>
+        <v>10029</v>
       </c>
       <c r="B219" t="s">
         <v>0</v>
@@ -3340,31 +3341,31 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>29239</v>
+        <v>10037</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>7044</v>
+        <v>10038</v>
       </c>
       <c r="B221" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>6684</v>
+        <v>10039</v>
       </c>
       <c r="B222" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>3485</v>
+        <v>10048</v>
       </c>
       <c r="B223" t="s">
         <v>0</v>
@@ -3372,15 +3373,15 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>4166</v>
+        <v>10051</v>
       </c>
       <c r="B224" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>6697</v>
+        <v>10052</v>
       </c>
       <c r="B225" t="s">
         <v>1</v>
@@ -3388,15 +3389,15 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>6991</v>
+        <v>10053</v>
       </c>
       <c r="B226" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>13721</v>
+        <v>10054</v>
       </c>
       <c r="B227" t="s">
         <v>1</v>
@@ -3404,71 +3405,71 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>14322</v>
+        <v>10058</v>
       </c>
       <c r="B228" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>15782</v>
+        <v>10123</v>
       </c>
       <c r="B229" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>28702</v>
+        <v>10124</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>6405</v>
+        <v>10835</v>
       </c>
       <c r="B231" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>28663</v>
+        <v>10836</v>
       </c>
       <c r="B232" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>28470</v>
+        <v>10875</v>
       </c>
       <c r="B233" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>6912</v>
+        <v>11709</v>
       </c>
       <c r="B234" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>6703</v>
+        <v>11731</v>
       </c>
       <c r="B235" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>9886</v>
+        <v>11742</v>
       </c>
       <c r="B236" t="s">
         <v>1</v>
@@ -3476,7 +3477,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>7089</v>
+        <v>11856</v>
       </c>
       <c r="B237" t="s">
         <v>1</v>
@@ -3484,7 +3485,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>6902</v>
+        <v>12417</v>
       </c>
       <c r="B238" t="s">
         <v>2</v>
@@ -3492,23 +3493,23 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>6688</v>
+        <v>12430</v>
       </c>
       <c r="B239" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>1586</v>
+        <v>12432</v>
       </c>
       <c r="B240" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>9838</v>
+        <v>12439</v>
       </c>
       <c r="B241" t="s">
         <v>1</v>
@@ -3516,111 +3517,111 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>28673</v>
+        <v>13431</v>
       </c>
       <c r="B242" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>6978</v>
+        <v>13721</v>
       </c>
       <c r="B243" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>9477</v>
+        <v>13780</v>
       </c>
       <c r="B244" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>6987</v>
+        <v>13841</v>
       </c>
       <c r="B245" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>29023</v>
+        <v>13843</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>28664</v>
+        <v>13956</v>
       </c>
       <c r="B247" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>6676</v>
+        <v>14194</v>
       </c>
       <c r="B248" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>28698</v>
+        <v>14258</v>
       </c>
       <c r="B249" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>10002</v>
+        <v>14283</v>
       </c>
       <c r="B250" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>6954</v>
+        <v>14301</v>
       </c>
       <c r="B251" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>6965</v>
+        <v>14322</v>
       </c>
       <c r="B252" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>9863</v>
+        <v>14521</v>
       </c>
       <c r="B253" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>10037</v>
+        <v>14626</v>
       </c>
       <c r="B254" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>14521</v>
+        <v>14783</v>
       </c>
       <c r="B255" t="s">
         <v>1</v>
@@ -3628,7 +3629,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>6700</v>
+        <v>15226</v>
       </c>
       <c r="B256" t="s">
         <v>1</v>
@@ -3636,55 +3637,55 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>6984</v>
+        <v>15511</v>
       </c>
       <c r="B257" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>3087</v>
+        <v>15512</v>
       </c>
       <c r="B258" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>3497</v>
+        <v>15622</v>
       </c>
       <c r="B259" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>9837</v>
+        <v>15626</v>
       </c>
       <c r="B260" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>9995</v>
+        <v>15628</v>
       </c>
       <c r="B261" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>28706</v>
+        <v>15629</v>
       </c>
       <c r="B262" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>6423</v>
+        <v>15632</v>
       </c>
       <c r="B263" t="s">
         <v>1</v>
@@ -3692,31 +3693,31 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>6905</v>
+        <v>15641</v>
       </c>
       <c r="B264" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>9834</v>
+        <v>15664</v>
       </c>
       <c r="B265" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>29477</v>
+        <v>15666</v>
       </c>
       <c r="B266" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>16162</v>
+        <v>15689</v>
       </c>
       <c r="B267" t="s">
         <v>1</v>
@@ -3724,7 +3725,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>6586</v>
+        <v>15692</v>
       </c>
       <c r="B268" t="s">
         <v>1</v>
@@ -3732,23 +3733,23 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>9413</v>
+        <v>15775</v>
       </c>
       <c r="B269" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>29019</v>
+        <v>15776</v>
       </c>
       <c r="B270" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>5117</v>
+        <v>15777</v>
       </c>
       <c r="B271" t="s">
         <v>1</v>
@@ -3756,7 +3757,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>6647</v>
+        <v>15782</v>
       </c>
       <c r="B272" t="s">
         <v>1</v>
@@ -3764,7 +3765,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>2907</v>
+        <v>16162</v>
       </c>
       <c r="B273" t="s">
         <v>1</v>
@@ -3772,7 +3773,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>13956</v>
+        <v>16281</v>
       </c>
       <c r="B274" t="s">
         <v>1</v>
@@ -3780,31 +3781,31 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>28502</v>
+        <v>16490</v>
       </c>
       <c r="B275" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>6895</v>
+        <v>16911</v>
       </c>
       <c r="B276" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>6675</v>
+        <v>17072</v>
       </c>
       <c r="B277" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>10053</v>
+        <v>17163</v>
       </c>
       <c r="B278" t="s">
         <v>1</v>
@@ -3812,15 +3813,15 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>10022</v>
+        <v>17329</v>
       </c>
       <c r="B279" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>15622</v>
+        <v>17632</v>
       </c>
       <c r="B280" t="s">
         <v>1</v>
@@ -3828,71 +3829,71 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>4097</v>
+        <v>17633</v>
       </c>
       <c r="B281" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>6652</v>
+        <v>28211</v>
       </c>
       <c r="B282" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>6696</v>
+        <v>28470</v>
       </c>
       <c r="B283" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>10836</v>
+        <v>28501</v>
       </c>
       <c r="B284" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>15626</v>
+        <v>28502</v>
       </c>
       <c r="B285" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>9487</v>
+        <v>28652</v>
       </c>
       <c r="B286" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>9825</v>
+        <v>28663</v>
       </c>
       <c r="B287" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>10039</v>
+        <v>28664</v>
       </c>
       <c r="B288" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>28953</v>
+        <v>28665</v>
       </c>
       <c r="B289" t="s">
         <v>4</v>
@@ -3900,143 +3901,143 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>4459</v>
+        <v>28666</v>
       </c>
       <c r="B290" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>6974</v>
+        <v>28668</v>
       </c>
       <c r="B291" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>9865</v>
+        <v>28669</v>
       </c>
       <c r="B292" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>6422</v>
+        <v>28670</v>
       </c>
       <c r="B293" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>9871</v>
+        <v>28671</v>
       </c>
       <c r="B294" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>15641</v>
+        <v>28673</v>
       </c>
       <c r="B295" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>9456</v>
+        <v>28697</v>
       </c>
       <c r="B296" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>17329</v>
+        <v>28698</v>
       </c>
       <c r="B297" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>7566</v>
+        <v>28699</v>
       </c>
       <c r="B298" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>7062</v>
+        <v>28700</v>
       </c>
       <c r="B299" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>9823</v>
+        <v>28702</v>
       </c>
       <c r="B300" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>9833</v>
+        <v>28704</v>
       </c>
       <c r="B301" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>15226</v>
+        <v>28706</v>
       </c>
       <c r="B302" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>6889</v>
+        <v>28707</v>
       </c>
       <c r="B303" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>7592</v>
+        <v>28710</v>
       </c>
       <c r="B304" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>7703</v>
+        <v>28718</v>
       </c>
       <c r="B305" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>6892</v>
+        <v>28766</v>
       </c>
       <c r="B306" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>28990</v>
+        <v>28767</v>
       </c>
       <c r="B307" t="s">
         <v>4</v>
@@ -4044,15 +4045,15 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>9419</v>
+        <v>28770</v>
       </c>
       <c r="B308" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>28770</v>
+        <v>28771</v>
       </c>
       <c r="B309" t="s">
         <v>4</v>
@@ -4060,66 +4061,66 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>7700</v>
+        <v>28945</v>
       </c>
       <c r="B310" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>4484</v>
+        <v>28947</v>
       </c>
       <c r="B311" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>6903</v>
+        <v>28951</v>
       </c>
       <c r="B312" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>6971</v>
+        <v>28953</v>
       </c>
       <c r="B313" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>6400</v>
+        <v>28954</v>
       </c>
       <c r="B314" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>7701</v>
+        <v>28955</v>
       </c>
       <c r="B315" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>6658</v>
+        <v>28990</v>
       </c>
       <c r="B316" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>9849</v>
+        <v>28993</v>
       </c>
       <c r="B317" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
@@ -4132,23 +4133,23 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>9858</v>
+        <v>28998</v>
       </c>
       <c r="B319" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>9831</v>
+        <v>28999</v>
       </c>
       <c r="B320" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>29018</v>
+        <v>29001</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
@@ -4156,141 +4157,120 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>6404</v>
+        <v>29016</v>
       </c>
       <c r="B322" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>3088</v>
+        <v>29017</v>
       </c>
       <c r="B323" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>15692</v>
+        <v>29018</v>
       </c>
       <c r="B324" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>15777</v>
+        <v>29019</v>
       </c>
       <c r="B325" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>6968</v>
+        <v>29020</v>
       </c>
       <c r="B326" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>6659</v>
+        <v>29023</v>
       </c>
       <c r="B327" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>6901</v>
+        <v>29024</v>
       </c>
       <c r="B328" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>4096</v>
+        <v>29226</v>
       </c>
       <c r="B329" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>9457</v>
+        <v>29239</v>
       </c>
       <c r="B330" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>9484</v>
+        <v>29240</v>
       </c>
       <c r="B331" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332">
-        <v>9866</v>
+        <v>29255</v>
       </c>
       <c r="B332" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>5608</v>
+        <v>29275</v>
       </c>
       <c r="B333" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>9870</v>
+        <v>29284</v>
       </c>
       <c r="B334" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>6689</v>
+        <v>29477</v>
       </c>
       <c r="B335" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336">
-        <v>7045</v>
-      </c>
-      <c r="B336" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337">
-        <v>2415</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338">
-        <v>6661</v>
-      </c>
-      <c r="B338" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B338">
+    <sortCondition ref="A2:A338"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4299,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Model/node_lists.xlsx
+++ b/Model/node_lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7220" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="generation_only" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="8">
   <si>
     <t>station</t>
   </si>
@@ -71,12 +71,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -106,11 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,7 +416,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>4093</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -417,31 +424,31 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>10009</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>10707</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>6651</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>6656</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -449,31 +456,31 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6941</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>28711</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>6408</v>
+        <v>1500</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>333</v>
+        <v>1514</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -481,23 +488,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>7031</v>
+        <v>1834</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>28509</v>
+        <v>2106</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>6701</v>
+        <v>3492</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -505,7 +512,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>4472</v>
+        <v>3861</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -513,7 +520,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>4491</v>
+        <v>4093</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -521,55 +528,55 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>28667</v>
+        <v>4472</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>28601</v>
+        <v>4473</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>7557</v>
+        <v>4491</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>6982</v>
+        <v>6024</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>6930</v>
+        <v>6048</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>12162</v>
+        <v>6177</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>322</v>
+        <v>6178</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -577,39 +584,39 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>6660</v>
+        <v>6403</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>15662</v>
+        <v>6407</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>6048</v>
+        <v>6408</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>15691</v>
+        <v>6650</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>1500</v>
+        <v>6651</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -617,15 +624,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>319</v>
+        <v>6654</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>7601</v>
+        <v>6655</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -633,7 +640,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>7599</v>
+        <v>6656</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -641,15 +648,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>28662</v>
+        <v>6660</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>16289</v>
+        <v>6665</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -657,15 +664,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>6938</v>
+        <v>6666</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>6666</v>
+        <v>6678</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -673,23 +680,23 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>10018</v>
+        <v>6679</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>6655</v>
+        <v>6680</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>6654</v>
+        <v>6683</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -697,15 +704,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>6956</v>
+        <v>6695</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>321</v>
+        <v>6701</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -713,7 +720,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>6955</v>
+        <v>6888</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -721,7 +728,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>7559</v>
+        <v>6890</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -729,31 +736,31 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>9824</v>
+        <v>6891</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>6177</v>
+        <v>6907</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>7026</v>
+        <v>6930</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>9506</v>
+        <v>6938</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -761,7 +768,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2106</v>
+        <v>6939</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -769,39 +776,39 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>323</v>
+        <v>6941</v>
       </c>
       <c r="B47" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>6024</v>
+        <v>6942</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>10129</v>
+        <v>6953</v>
       </c>
       <c r="B49" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>28703</v>
+        <v>6955</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>1514</v>
+        <v>6956</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -809,7 +816,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>7600</v>
+        <v>6966</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -817,47 +824,47 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>29015</v>
+        <v>6982</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>4473</v>
+        <v>7011</v>
       </c>
       <c r="B54" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>6407</v>
+        <v>7026</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>6966</v>
+        <v>7031</v>
       </c>
       <c r="B56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>28991</v>
+        <v>7046</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>324</v>
+        <v>7061</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -865,15 +872,15 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>9851</v>
+        <v>7064</v>
       </c>
       <c r="B59" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>7602</v>
+        <v>7065</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -881,23 +888,23 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>6953</v>
+        <v>7067</v>
       </c>
       <c r="B61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>14549</v>
+        <v>7555</v>
       </c>
       <c r="B62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>9441</v>
+        <v>7557</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -905,7 +912,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>15630</v>
+        <v>7559</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -913,23 +920,23 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>6695</v>
+        <v>7599</v>
       </c>
       <c r="B65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>6942</v>
+        <v>7600</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>7065</v>
+        <v>7601</v>
       </c>
       <c r="B67" t="s">
         <v>1</v>
@@ -937,7 +944,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>6679</v>
+        <v>7602</v>
       </c>
       <c r="B68" t="s">
         <v>1</v>
@@ -945,23 +952,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>9505</v>
+        <v>7608</v>
       </c>
       <c r="B69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>16404</v>
+        <v>7618</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>6939</v>
+        <v>7798</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -969,47 +976,47 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>28636</v>
+        <v>9441</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>6891</v>
+        <v>9505</v>
       </c>
       <c r="B73" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>28946</v>
+        <v>9506</v>
       </c>
       <c r="B74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>7046</v>
+        <v>9824</v>
       </c>
       <c r="B75" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>7061</v>
+        <v>9850</v>
       </c>
       <c r="B76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>334</v>
+        <v>9851</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -1017,55 +1024,55 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>6888</v>
+        <v>9873</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>1834</v>
+        <v>10009</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>7555</v>
+        <v>10015</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>28719</v>
+        <v>10017</v>
       </c>
       <c r="B81" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>9850</v>
+        <v>10018</v>
       </c>
       <c r="B82" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>6680</v>
+        <v>10019</v>
       </c>
       <c r="B83" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>10017</v>
+        <v>10125</v>
       </c>
       <c r="B84" t="s">
         <v>0</v>
@@ -1073,15 +1080,15 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>6665</v>
+        <v>10126</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>10015</v>
+        <v>10127</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
@@ -1089,39 +1096,39 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>6683</v>
+        <v>10128</v>
       </c>
       <c r="B87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>3492</v>
+        <v>10129</v>
       </c>
       <c r="B88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>6907</v>
+        <v>10707</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>7064</v>
+        <v>12162</v>
       </c>
       <c r="B90" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>6178</v>
+        <v>12414</v>
       </c>
       <c r="B91" t="s">
         <v>1</v>
@@ -1129,7 +1136,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>7011</v>
+        <v>14366</v>
       </c>
       <c r="B92" t="s">
         <v>1</v>
@@ -1137,39 +1144,39 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>10126</v>
+        <v>14549</v>
       </c>
       <c r="B93" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>9873</v>
+        <v>15630</v>
       </c>
       <c r="B94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>10019</v>
+        <v>15661</v>
       </c>
       <c r="B95" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>10128</v>
+        <v>15662</v>
       </c>
       <c r="B96" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>14366</v>
+        <v>15690</v>
       </c>
       <c r="B97" t="s">
         <v>1</v>
@@ -1177,15 +1184,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>29021</v>
+        <v>15691</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>15690</v>
+        <v>16289</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -1193,15 +1200,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>10125</v>
+        <v>16404</v>
       </c>
       <c r="B100" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>29002</v>
+        <v>28471</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
@@ -1209,23 +1216,23 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>7067</v>
+        <v>28509</v>
       </c>
       <c r="B102" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>7608</v>
+        <v>28601</v>
       </c>
       <c r="B103" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>28994</v>
+        <v>28636</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
@@ -1233,7 +1240,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>28471</v>
+        <v>28662</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
@@ -1241,47 +1248,47 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>12414</v>
+        <v>28667</v>
       </c>
       <c r="B106" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>15661</v>
+        <v>28703</v>
       </c>
       <c r="B107" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>3861</v>
+        <v>28711</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>7798</v>
+        <v>28714</v>
       </c>
       <c r="B109" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>10127</v>
+        <v>28719</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>29262</v>
+        <v>28946</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
@@ -1289,31 +1296,31 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>6650</v>
+        <v>28991</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>6403</v>
+        <v>28994</v>
       </c>
       <c r="B113" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>6890</v>
+        <v>29002</v>
       </c>
       <c r="B114" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>28714</v>
+        <v>29015</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
@@ -1321,18 +1328,18 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>7618</v>
+        <v>29021</v>
       </c>
       <c r="B116" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>6678</v>
+        <v>29262</v>
       </c>
       <c r="B117" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -1568,16 +1575,19 @@
       <c r="B179" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:B179">
+    <sortCondition ref="A2:A179"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B335"/>
+  <dimension ref="A1:B342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+    <sheetView topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1717,23 +1727,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2042</v>
+        <v>1924</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2415</v>
+        <v>1960</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1741,7 +1751,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2416</v>
+        <v>2042</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1749,7 +1759,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2417</v>
+        <v>2050</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1757,7 +1767,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2907</v>
+        <v>2415</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1765,55 +1775,55 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>3087</v>
+        <v>2416</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>3088</v>
+        <v>2417</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>3484</v>
+        <v>2418</v>
       </c>
       <c r="B25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>3485</v>
+        <v>2907</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>3493</v>
+        <v>3087</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>3494</v>
+        <v>3088</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>3497</v>
+        <v>3484</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
@@ -1821,71 +1831,71 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>3498</v>
+        <v>3485</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>4095</v>
+        <v>3493</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>4096</v>
+        <v>3494</v>
       </c>
       <c r="B32" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>4098</v>
+        <v>3497</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>4099</v>
+        <v>3498</v>
       </c>
       <c r="B34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>4166</v>
+        <v>4095</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>4169</v>
+        <v>4096</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>4459</v>
+        <v>4098</v>
       </c>
       <c r="B37" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>4475</v>
+        <v>4099</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -1893,23 +1903,23 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>4484</v>
+        <v>4166</v>
       </c>
       <c r="B39" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>4496</v>
+        <v>4169</v>
       </c>
       <c r="B40" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>4517</v>
+        <v>4459</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -1917,39 +1927,39 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>5117</v>
+        <v>4475</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>5608</v>
+        <v>4484</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>6131</v>
+        <v>4496</v>
       </c>
       <c r="B44" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>6400</v>
+        <v>4517</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>6402</v>
+        <v>5117</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -1957,15 +1967,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>6404</v>
+        <v>5608</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>6405</v>
+        <v>6131</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -1973,15 +1983,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>6422</v>
+        <v>6400</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>6423</v>
+        <v>6402</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -1989,15 +1999,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>6586</v>
+        <v>6404</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>6641</v>
+        <v>6405</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -2005,7 +2015,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>6646</v>
+        <v>6422</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -2013,7 +2023,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>6647</v>
+        <v>6423</v>
       </c>
       <c r="B54" t="s">
         <v>1</v>
@@ -2021,15 +2031,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>6652</v>
+        <v>6586</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>6657</v>
+        <v>6641</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2037,31 +2047,31 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>6658</v>
+        <v>6646</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>6659</v>
+        <v>6647</v>
       </c>
       <c r="B58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>6661</v>
+        <v>6652</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>6662</v>
+        <v>6657</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -2069,7 +2079,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>6663</v>
+        <v>6658</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -2077,7 +2087,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>6664</v>
+        <v>6659</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -2085,7 +2095,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>6667</v>
+        <v>6661</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -2093,39 +2103,39 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>6668</v>
+        <v>6662</v>
       </c>
       <c r="B64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>6669</v>
+        <v>6663</v>
       </c>
       <c r="B65" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>6670</v>
+        <v>6664</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>6671</v>
+        <v>6667</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>6673</v>
+        <v>6668</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
@@ -2133,39 +2143,39 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>6674</v>
+        <v>6669</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>6675</v>
+        <v>6670</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>6676</v>
+        <v>6671</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>6677</v>
+        <v>6673</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>6681</v>
+        <v>6674</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -2173,31 +2183,31 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>6682</v>
+        <v>6675</v>
       </c>
       <c r="B74" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>6684</v>
+        <v>6676</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>6685</v>
+        <v>6677</v>
       </c>
       <c r="B76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>6687</v>
+        <v>6681</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
@@ -2205,15 +2215,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>6688</v>
+        <v>6682</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>6689</v>
+        <v>6684</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
@@ -2221,7 +2231,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>6690</v>
+        <v>6685</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
@@ -2229,7 +2239,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>6691</v>
+        <v>6687</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -2237,15 +2247,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>6692</v>
+        <v>6688</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>6697</v>
+        <v>6689</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -2253,23 +2263,23 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>6698</v>
+        <v>6690</v>
       </c>
       <c r="B84" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>6699</v>
+        <v>6691</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>6700</v>
+        <v>6692</v>
       </c>
       <c r="B86" t="s">
         <v>1</v>
@@ -2277,15 +2287,15 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>6703</v>
+        <v>6697</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>6889</v>
+        <v>6698</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -2293,15 +2303,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>6892</v>
+        <v>6699</v>
       </c>
       <c r="B89" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>6893</v>
+        <v>6700</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -2309,31 +2319,31 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>6894</v>
+        <v>6703</v>
       </c>
       <c r="B91" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>6895</v>
+        <v>6889</v>
       </c>
       <c r="B92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>6897</v>
+        <v>6892</v>
       </c>
       <c r="B93" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>6900</v>
+        <v>6893</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -2341,7 +2351,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>6901</v>
+        <v>6894</v>
       </c>
       <c r="B95" t="s">
         <v>1</v>
@@ -2349,7 +2359,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>6902</v>
+        <v>6895</v>
       </c>
       <c r="B96" t="s">
         <v>2</v>
@@ -2357,23 +2367,23 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>6903</v>
+        <v>6897</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>6904</v>
+        <v>6900</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>6905</v>
+        <v>6901</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -2381,23 +2391,23 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>6906</v>
+        <v>6902</v>
       </c>
       <c r="B100" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>6912</v>
+        <v>6903</v>
       </c>
       <c r="B101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>6916</v>
+        <v>6904</v>
       </c>
       <c r="B102" t="s">
         <v>2</v>
@@ -2405,15 +2415,15 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>6922</v>
+        <v>6905</v>
       </c>
       <c r="B103" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>6940</v>
+        <v>6906</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
@@ -2421,7 +2431,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>6954</v>
+        <v>6912</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -2429,7 +2439,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>6964</v>
+        <v>6916</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -2437,15 +2447,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>6965</v>
+        <v>6922</v>
       </c>
       <c r="B107" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>6967</v>
+        <v>6940</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
@@ -2453,7 +2463,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>6968</v>
+        <v>6954</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -2461,7 +2471,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>6969</v>
+        <v>6964</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -2469,7 +2479,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>6971</v>
+        <v>6965</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
@@ -2477,15 +2487,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>6972</v>
+        <v>6967</v>
       </c>
       <c r="B112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>6974</v>
+        <v>6968</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
@@ -2493,7 +2503,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>6976</v>
+        <v>6969</v>
       </c>
       <c r="B114" t="s">
         <v>2</v>
@@ -2501,15 +2511,15 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>6977</v>
+        <v>6971</v>
       </c>
       <c r="B115" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>6978</v>
+        <v>6972</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -2517,7 +2527,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>6980</v>
+        <v>6974</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -2525,7 +2535,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>6981</v>
+        <v>6976</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -2533,23 +2543,23 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>6984</v>
+        <v>6977</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>6986</v>
+        <v>6978</v>
       </c>
       <c r="B120" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>6987</v>
+        <v>6980</v>
       </c>
       <c r="B121" t="s">
         <v>2</v>
@@ -2557,7 +2567,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>6991</v>
+        <v>6981</v>
       </c>
       <c r="B122" t="s">
         <v>2</v>
@@ -2565,15 +2575,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>7014</v>
+        <v>6984</v>
       </c>
       <c r="B123" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>7041</v>
+        <v>6986</v>
       </c>
       <c r="B124" t="s">
         <v>1</v>
@@ -2581,7 +2591,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>7044</v>
+        <v>6987</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -2589,7 +2599,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>7045</v>
+        <v>6991</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -2597,55 +2607,55 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>7047</v>
+        <v>7014</v>
       </c>
       <c r="B127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>7049</v>
+        <v>7041</v>
       </c>
       <c r="B128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>7050</v>
+        <v>7044</v>
       </c>
       <c r="B129" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>7062</v>
+        <v>7045</v>
       </c>
       <c r="B130" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>7066</v>
+        <v>7047</v>
       </c>
       <c r="B131" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>7089</v>
+        <v>7049</v>
       </c>
       <c r="B132" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>7091</v>
+        <v>7050</v>
       </c>
       <c r="B133" t="s">
         <v>1</v>
@@ -2653,7 +2663,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>7092</v>
+        <v>7062</v>
       </c>
       <c r="B134" t="s">
         <v>1</v>
@@ -2661,7 +2671,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>7566</v>
+        <v>7066</v>
       </c>
       <c r="B135" t="s">
         <v>1</v>
@@ -2669,15 +2679,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>7587</v>
+        <v>7089</v>
       </c>
       <c r="B136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>7588</v>
+        <v>7091</v>
       </c>
       <c r="B137" t="s">
         <v>1</v>
@@ -2685,15 +2695,15 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>7589</v>
+        <v>7092</v>
       </c>
       <c r="B138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>7590</v>
+        <v>7566</v>
       </c>
       <c r="B139" t="s">
         <v>1</v>
@@ -2701,15 +2711,15 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>7591</v>
+        <v>7587</v>
       </c>
       <c r="B140" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>7592</v>
+        <v>7588</v>
       </c>
       <c r="B141" t="s">
         <v>1</v>
@@ -2717,7 +2727,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>7597</v>
+        <v>7589</v>
       </c>
       <c r="B142" t="s">
         <v>2</v>
@@ -2725,15 +2735,15 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>7607</v>
+        <v>7590</v>
       </c>
       <c r="B143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>7619</v>
+        <v>7591</v>
       </c>
       <c r="B144" t="s">
         <v>1</v>
@@ -2741,31 +2751,31 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>7699</v>
+        <v>7592</v>
       </c>
       <c r="B145" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>7700</v>
+        <v>7597</v>
       </c>
       <c r="B146" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>7701</v>
+        <v>7607</v>
       </c>
       <c r="B147" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>7702</v>
+        <v>7619</v>
       </c>
       <c r="B148" t="s">
         <v>1</v>
@@ -2773,31 +2783,31 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>7703</v>
+        <v>7699</v>
       </c>
       <c r="B149" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>9412</v>
+        <v>7700</v>
       </c>
       <c r="B150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>9413</v>
+        <v>7701</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>9414</v>
+        <v>7702</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -2805,7 +2815,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>9418</v>
+        <v>7703</v>
       </c>
       <c r="B153" t="s">
         <v>1</v>
@@ -2813,23 +2823,23 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>9419</v>
+        <v>9412</v>
       </c>
       <c r="B154" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>9439</v>
+        <v>9413</v>
       </c>
       <c r="B155" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>9440</v>
+        <v>9414</v>
       </c>
       <c r="B156" t="s">
         <v>1</v>
@@ -2837,7 +2847,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>9453</v>
+        <v>9418</v>
       </c>
       <c r="B157" t="s">
         <v>1</v>
@@ -2845,15 +2855,15 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>9454</v>
+        <v>9419</v>
       </c>
       <c r="B158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>9455</v>
+        <v>9439</v>
       </c>
       <c r="B159" t="s">
         <v>1</v>
@@ -2861,15 +2871,15 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>9457</v>
+        <v>9440</v>
       </c>
       <c r="B160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>9458</v>
+        <v>9453</v>
       </c>
       <c r="B161" t="s">
         <v>1</v>
@@ -2877,7 +2887,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>9477</v>
+        <v>9454</v>
       </c>
       <c r="B162" t="s">
         <v>2</v>
@@ -2885,7 +2895,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>9479</v>
+        <v>9455</v>
       </c>
       <c r="B163" t="s">
         <v>1</v>
@@ -2893,47 +2903,47 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>9480</v>
+        <v>9457</v>
       </c>
       <c r="B164" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>9483</v>
+        <v>9458</v>
       </c>
       <c r="B165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>9484</v>
+        <v>9477</v>
       </c>
       <c r="B166" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>9487</v>
+        <v>9479</v>
       </c>
       <c r="B167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>9488</v>
+        <v>9480</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>9507</v>
+        <v>9483</v>
       </c>
       <c r="B169" t="s">
         <v>2</v>
@@ -2941,39 +2951,39 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>9508</v>
+        <v>9484</v>
       </c>
       <c r="B170" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>9820</v>
+        <v>9487</v>
       </c>
       <c r="B171" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>9821</v>
+        <v>9488</v>
       </c>
       <c r="B172" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>9822</v>
+        <v>9507</v>
       </c>
       <c r="B173" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>9823</v>
+        <v>9508</v>
       </c>
       <c r="B174" t="s">
         <v>1</v>
@@ -2981,7 +2991,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>9825</v>
+        <v>9820</v>
       </c>
       <c r="B175" t="s">
         <v>0</v>
@@ -2989,7 +2999,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>9829</v>
+        <v>9821</v>
       </c>
       <c r="B176" t="s">
         <v>0</v>
@@ -2997,15 +3007,15 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>9830</v>
+        <v>9822</v>
       </c>
       <c r="B177" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>9831</v>
+        <v>9823</v>
       </c>
       <c r="B178" t="s">
         <v>1</v>
@@ -3013,7 +3023,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>9832</v>
+        <v>9825</v>
       </c>
       <c r="B179" t="s">
         <v>0</v>
@@ -3021,7 +3031,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>9833</v>
+        <v>9829</v>
       </c>
       <c r="B180" t="s">
         <v>0</v>
@@ -3029,7 +3039,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>9834</v>
+        <v>9830</v>
       </c>
       <c r="B181" t="s">
         <v>0</v>
@@ -3037,15 +3047,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>9835</v>
+        <v>9831</v>
       </c>
       <c r="B182" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>9836</v>
+        <v>9832</v>
       </c>
       <c r="B183" t="s">
         <v>0</v>
@@ -3053,7 +3063,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>9837</v>
+        <v>9833</v>
       </c>
       <c r="B184" t="s">
         <v>0</v>
@@ -3061,15 +3071,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>9838</v>
+        <v>9834</v>
       </c>
       <c r="B185" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>9841</v>
+        <v>9835</v>
       </c>
       <c r="B186" t="s">
         <v>0</v>
@@ -3077,7 +3087,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>9846</v>
+        <v>9836</v>
       </c>
       <c r="B187" t="s">
         <v>0</v>
@@ -3085,7 +3095,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>9849</v>
+        <v>9837</v>
       </c>
       <c r="B188" t="s">
         <v>0</v>
@@ -3093,31 +3103,31 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>9852</v>
+        <v>9838</v>
       </c>
       <c r="B189" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>9858</v>
+        <v>9841</v>
       </c>
       <c r="B190" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>9859</v>
+        <v>9846</v>
       </c>
       <c r="B191" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>9862</v>
+        <v>9849</v>
       </c>
       <c r="B192" t="s">
         <v>0</v>
@@ -3125,7 +3135,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>9863</v>
+        <v>9852</v>
       </c>
       <c r="B193" t="s">
         <v>0</v>
@@ -3133,15 +3143,15 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>9864</v>
+        <v>9858</v>
       </c>
       <c r="B194" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>9865</v>
+        <v>9859</v>
       </c>
       <c r="B195" t="s">
         <v>1</v>
@@ -3149,7 +3159,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>9866</v>
+        <v>9862</v>
       </c>
       <c r="B196" t="s">
         <v>0</v>
@@ -3157,7 +3167,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>9867</v>
+        <v>9863</v>
       </c>
       <c r="B197" t="s">
         <v>0</v>
@@ -3165,15 +3175,15 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>9868</v>
+        <v>9864</v>
       </c>
       <c r="B198" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>9869</v>
+        <v>9865</v>
       </c>
       <c r="B199" t="s">
         <v>1</v>
@@ -3181,7 +3191,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>9870</v>
+        <v>9866</v>
       </c>
       <c r="B200" t="s">
         <v>0</v>
@@ -3189,7 +3199,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>9871</v>
+        <v>9867</v>
       </c>
       <c r="B201" t="s">
         <v>0</v>
@@ -3197,7 +3207,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>9872</v>
+        <v>9868</v>
       </c>
       <c r="B202" t="s">
         <v>1</v>
@@ -3205,7 +3215,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>9874</v>
+        <v>9869</v>
       </c>
       <c r="B203" t="s">
         <v>1</v>
@@ -3213,7 +3223,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>9876</v>
+        <v>9870</v>
       </c>
       <c r="B204" t="s">
         <v>0</v>
@@ -3221,7 +3231,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>9877</v>
+        <v>9871</v>
       </c>
       <c r="B205" t="s">
         <v>0</v>
@@ -3229,39 +3239,39 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>9881</v>
+        <v>9872</v>
       </c>
       <c r="B206" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>9885</v>
+        <v>9874</v>
       </c>
       <c r="B207" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>9886</v>
+        <v>9876</v>
       </c>
       <c r="B208" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>9887</v>
+        <v>9877</v>
       </c>
       <c r="B209" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>9994</v>
+        <v>9881</v>
       </c>
       <c r="B210" t="s">
         <v>0</v>
@@ -3269,7 +3279,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>9995</v>
+        <v>9885</v>
       </c>
       <c r="B211" t="s">
         <v>0</v>
@@ -3277,23 +3287,23 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>10002</v>
+        <v>9886</v>
       </c>
       <c r="B212" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>10012</v>
+        <v>9887</v>
       </c>
       <c r="B213" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>10013</v>
+        <v>9994</v>
       </c>
       <c r="B214" t="s">
         <v>0</v>
@@ -3301,7 +3311,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>10014</v>
+        <v>9995</v>
       </c>
       <c r="B215" t="s">
         <v>0</v>
@@ -3309,7 +3319,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>10016</v>
+        <v>10002</v>
       </c>
       <c r="B216" t="s">
         <v>0</v>
@@ -3317,23 +3327,23 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>10022</v>
+        <v>10012</v>
       </c>
       <c r="B217" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>10024</v>
+        <v>10013</v>
       </c>
       <c r="B218" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>10029</v>
+        <v>10014</v>
       </c>
       <c r="B219" t="s">
         <v>0</v>
@@ -3341,55 +3351,55 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>10037</v>
+        <v>10016</v>
       </c>
       <c r="B220" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>10038</v>
+        <v>10022</v>
       </c>
       <c r="B221" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222">
-        <v>10039</v>
-      </c>
-      <c r="B222" t="s">
-        <v>2</v>
+    <row r="222" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="2">
+        <v>10023</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>10048</v>
+        <v>10024</v>
       </c>
       <c r="B223" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>10051</v>
+        <v>10029</v>
       </c>
       <c r="B224" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>10052</v>
+        <v>10037</v>
       </c>
       <c r="B225" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>10053</v>
+        <v>10038</v>
       </c>
       <c r="B226" t="s">
         <v>1</v>
@@ -3397,15 +3407,15 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>10054</v>
+        <v>10039</v>
       </c>
       <c r="B227" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>10058</v>
+        <v>10048</v>
       </c>
       <c r="B228" t="s">
         <v>0</v>
@@ -3413,39 +3423,39 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>10123</v>
+        <v>10051</v>
       </c>
       <c r="B229" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>10124</v>
+        <v>10052</v>
       </c>
       <c r="B230" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>10835</v>
+        <v>10053</v>
       </c>
       <c r="B231" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>10836</v>
+        <v>10054</v>
       </c>
       <c r="B232" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>10875</v>
+        <v>10058</v>
       </c>
       <c r="B233" t="s">
         <v>0</v>
@@ -3453,7 +3463,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>11709</v>
+        <v>10123</v>
       </c>
       <c r="B234" t="s">
         <v>0</v>
@@ -3461,7 +3471,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>11731</v>
+        <v>10124</v>
       </c>
       <c r="B235" t="s">
         <v>0</v>
@@ -3469,47 +3479,47 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>11742</v>
+        <v>10835</v>
       </c>
       <c r="B236" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>11856</v>
+        <v>10836</v>
       </c>
       <c r="B237" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>12417</v>
+        <v>10875</v>
       </c>
       <c r="B238" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>12430</v>
+        <v>11709</v>
       </c>
       <c r="B239" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>12432</v>
+        <v>11731</v>
       </c>
       <c r="B240" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>12439</v>
+        <v>11742</v>
       </c>
       <c r="B241" t="s">
         <v>1</v>
@@ -3517,7 +3527,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>13431</v>
+        <v>11856</v>
       </c>
       <c r="B242" t="s">
         <v>1</v>
@@ -3525,15 +3535,15 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>13721</v>
+        <v>12417</v>
       </c>
       <c r="B243" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>13780</v>
+        <v>12430</v>
       </c>
       <c r="B244" t="s">
         <v>1</v>
@@ -3541,7 +3551,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>13841</v>
+        <v>12432</v>
       </c>
       <c r="B245" t="s">
         <v>1</v>
@@ -3549,7 +3559,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>13843</v>
+        <v>12439</v>
       </c>
       <c r="B246" t="s">
         <v>1</v>
@@ -3557,7 +3567,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>13956</v>
+        <v>13301</v>
       </c>
       <c r="B247" t="s">
         <v>1</v>
@@ -3565,7 +3575,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>14194</v>
+        <v>13431</v>
       </c>
       <c r="B248" t="s">
         <v>1</v>
@@ -3573,7 +3583,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>14258</v>
+        <v>13721</v>
       </c>
       <c r="B249" t="s">
         <v>1</v>
@@ -3581,7 +3591,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>14283</v>
+        <v>13780</v>
       </c>
       <c r="B250" t="s">
         <v>1</v>
@@ -3589,7 +3599,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>14301</v>
+        <v>13841</v>
       </c>
       <c r="B251" t="s">
         <v>1</v>
@@ -3597,7 +3607,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>14322</v>
+        <v>13843</v>
       </c>
       <c r="B252" t="s">
         <v>1</v>
@@ -3605,7 +3615,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>14521</v>
+        <v>13956</v>
       </c>
       <c r="B253" t="s">
         <v>1</v>
@@ -3613,7 +3623,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>14626</v>
+        <v>14194</v>
       </c>
       <c r="B254" t="s">
         <v>1</v>
@@ -3621,7 +3631,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>14783</v>
+        <v>14258</v>
       </c>
       <c r="B255" t="s">
         <v>1</v>
@@ -3629,7 +3639,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>15226</v>
+        <v>14283</v>
       </c>
       <c r="B256" t="s">
         <v>1</v>
@@ -3637,7 +3647,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>15511</v>
+        <v>14301</v>
       </c>
       <c r="B257" t="s">
         <v>1</v>
@@ -3645,7 +3655,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>15512</v>
+        <v>14322</v>
       </c>
       <c r="B258" t="s">
         <v>1</v>
@@ -3653,7 +3663,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>15622</v>
+        <v>14521</v>
       </c>
       <c r="B259" t="s">
         <v>1</v>
@@ -3661,7 +3671,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>15626</v>
+        <v>14626</v>
       </c>
       <c r="B260" t="s">
         <v>1</v>
@@ -3669,7 +3679,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>15628</v>
+        <v>14783</v>
       </c>
       <c r="B261" t="s">
         <v>1</v>
@@ -3677,7 +3687,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>15629</v>
+        <v>15226</v>
       </c>
       <c r="B262" t="s">
         <v>1</v>
@@ -3685,7 +3695,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>15632</v>
+        <v>15511</v>
       </c>
       <c r="B263" t="s">
         <v>1</v>
@@ -3693,15 +3703,15 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>15641</v>
+        <v>15512</v>
       </c>
       <c r="B264" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>15664</v>
+        <v>15622</v>
       </c>
       <c r="B265" t="s">
         <v>1</v>
@@ -3709,7 +3719,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>15666</v>
+        <v>15626</v>
       </c>
       <c r="B266" t="s">
         <v>1</v>
@@ -3717,7 +3727,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>15689</v>
+        <v>15628</v>
       </c>
       <c r="B267" t="s">
         <v>1</v>
@@ -3725,7 +3735,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>15692</v>
+        <v>15629</v>
       </c>
       <c r="B268" t="s">
         <v>1</v>
@@ -3733,7 +3743,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>15775</v>
+        <v>15632</v>
       </c>
       <c r="B269" t="s">
         <v>1</v>
@@ -3741,15 +3751,15 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>15776</v>
+        <v>15641</v>
       </c>
       <c r="B270" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>15777</v>
+        <v>15664</v>
       </c>
       <c r="B271" t="s">
         <v>1</v>
@@ -3757,7 +3767,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>15782</v>
+        <v>15666</v>
       </c>
       <c r="B272" t="s">
         <v>1</v>
@@ -3765,7 +3775,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>16162</v>
+        <v>15689</v>
       </c>
       <c r="B273" t="s">
         <v>1</v>
@@ -3773,7 +3783,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>16281</v>
+        <v>15692</v>
       </c>
       <c r="B274" t="s">
         <v>1</v>
@@ -3781,7 +3791,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>16490</v>
+        <v>15775</v>
       </c>
       <c r="B275" t="s">
         <v>1</v>
@@ -3789,7 +3799,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>16911</v>
+        <v>15776</v>
       </c>
       <c r="B276" t="s">
         <v>1</v>
@@ -3797,7 +3807,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>17072</v>
+        <v>15777</v>
       </c>
       <c r="B277" t="s">
         <v>1</v>
@@ -3805,7 +3815,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>17163</v>
+        <v>15782</v>
       </c>
       <c r="B278" t="s">
         <v>1</v>
@@ -3813,15 +3823,15 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>17329</v>
+        <v>16162</v>
       </c>
       <c r="B279" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>17632</v>
+        <v>16281</v>
       </c>
       <c r="B280" t="s">
         <v>1</v>
@@ -3829,7 +3839,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>17633</v>
+        <v>16490</v>
       </c>
       <c r="B281" t="s">
         <v>1</v>
@@ -3837,63 +3847,63 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>28211</v>
+        <v>16911</v>
       </c>
       <c r="B282" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>28470</v>
+        <v>17072</v>
       </c>
       <c r="B283" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>28501</v>
+        <v>17163</v>
       </c>
       <c r="B284" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>28502</v>
+        <v>17329</v>
       </c>
       <c r="B285" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>28652</v>
+        <v>17632</v>
       </c>
       <c r="B286" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>28663</v>
+        <v>17633</v>
       </c>
       <c r="B287" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>28664</v>
+        <v>18280</v>
       </c>
       <c r="B288" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>28665</v>
+        <v>28211</v>
       </c>
       <c r="B289" t="s">
         <v>4</v>
@@ -3901,7 +3911,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>28666</v>
+        <v>28470</v>
       </c>
       <c r="B290" t="s">
         <v>4</v>
@@ -3909,7 +3919,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>28668</v>
+        <v>28501</v>
       </c>
       <c r="B291" t="s">
         <v>4</v>
@@ -3917,7 +3927,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>28669</v>
+        <v>28502</v>
       </c>
       <c r="B292" t="s">
         <v>4</v>
@@ -3925,7 +3935,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>28670</v>
+        <v>28652</v>
       </c>
       <c r="B293" t="s">
         <v>4</v>
@@ -3933,7 +3943,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>28671</v>
+        <v>28663</v>
       </c>
       <c r="B294" t="s">
         <v>4</v>
@@ -3941,7 +3951,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>28673</v>
+        <v>28664</v>
       </c>
       <c r="B295" t="s">
         <v>4</v>
@@ -3949,7 +3959,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>28697</v>
+        <v>28665</v>
       </c>
       <c r="B296" t="s">
         <v>4</v>
@@ -3957,7 +3967,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>28698</v>
+        <v>28666</v>
       </c>
       <c r="B297" t="s">
         <v>4</v>
@@ -3965,7 +3975,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>28699</v>
+        <v>28668</v>
       </c>
       <c r="B298" t="s">
         <v>4</v>
@@ -3973,7 +3983,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>28700</v>
+        <v>28669</v>
       </c>
       <c r="B299" t="s">
         <v>4</v>
@@ -3981,7 +3991,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>28702</v>
+        <v>28670</v>
       </c>
       <c r="B300" t="s">
         <v>4</v>
@@ -3989,7 +3999,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>28704</v>
+        <v>28671</v>
       </c>
       <c r="B301" t="s">
         <v>4</v>
@@ -3997,7 +4007,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>28706</v>
+        <v>28673</v>
       </c>
       <c r="B302" t="s">
         <v>4</v>
@@ -4005,7 +4015,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>28707</v>
+        <v>28697</v>
       </c>
       <c r="B303" t="s">
         <v>4</v>
@@ -4013,7 +4023,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>28710</v>
+        <v>28698</v>
       </c>
       <c r="B304" t="s">
         <v>4</v>
@@ -4021,7 +4031,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>28718</v>
+        <v>28699</v>
       </c>
       <c r="B305" t="s">
         <v>4</v>
@@ -4029,7 +4039,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>28766</v>
+        <v>28700</v>
       </c>
       <c r="B306" t="s">
         <v>4</v>
@@ -4037,7 +4047,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>28767</v>
+        <v>28702</v>
       </c>
       <c r="B307" t="s">
         <v>4</v>
@@ -4045,7 +4055,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>28770</v>
+        <v>28704</v>
       </c>
       <c r="B308" t="s">
         <v>4</v>
@@ -4053,7 +4063,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>28771</v>
+        <v>28706</v>
       </c>
       <c r="B309" t="s">
         <v>4</v>
@@ -4061,7 +4071,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>28945</v>
+        <v>28707</v>
       </c>
       <c r="B310" t="s">
         <v>4</v>
@@ -4069,7 +4079,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>28947</v>
+        <v>28710</v>
       </c>
       <c r="B311" t="s">
         <v>4</v>
@@ -4077,7 +4087,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>28951</v>
+        <v>28718</v>
       </c>
       <c r="B312" t="s">
         <v>4</v>
@@ -4085,7 +4095,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>28953</v>
+        <v>28766</v>
       </c>
       <c r="B313" t="s">
         <v>4</v>
@@ -4093,7 +4103,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>28954</v>
+        <v>28767</v>
       </c>
       <c r="B314" t="s">
         <v>4</v>
@@ -4101,7 +4111,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>28955</v>
+        <v>28770</v>
       </c>
       <c r="B315" t="s">
         <v>4</v>
@@ -4109,7 +4119,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>28990</v>
+        <v>28771</v>
       </c>
       <c r="B316" t="s">
         <v>4</v>
@@ -4117,7 +4127,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317">
-        <v>28993</v>
+        <v>28945</v>
       </c>
       <c r="B317" t="s">
         <v>4</v>
@@ -4125,7 +4135,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>28995</v>
+        <v>28947</v>
       </c>
       <c r="B318" t="s">
         <v>4</v>
@@ -4133,7 +4143,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319">
-        <v>28998</v>
+        <v>28951</v>
       </c>
       <c r="B319" t="s">
         <v>4</v>
@@ -4141,7 +4151,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320">
-        <v>28999</v>
+        <v>28953</v>
       </c>
       <c r="B320" t="s">
         <v>4</v>
@@ -4149,7 +4159,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>29001</v>
+        <v>28954</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
@@ -4157,7 +4167,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>29016</v>
+        <v>28955</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
@@ -4165,7 +4175,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>29017</v>
+        <v>28990</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
@@ -4173,7 +4183,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>29018</v>
+        <v>28993</v>
       </c>
       <c r="B324" t="s">
         <v>4</v>
@@ -4181,7 +4191,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>29019</v>
+        <v>28995</v>
       </c>
       <c r="B325" t="s">
         <v>4</v>
@@ -4189,7 +4199,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>29020</v>
+        <v>28998</v>
       </c>
       <c r="B326" t="s">
         <v>4</v>
@@ -4197,7 +4207,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>29023</v>
+        <v>28999</v>
       </c>
       <c r="B327" t="s">
         <v>4</v>
@@ -4205,7 +4215,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>29024</v>
+        <v>29001</v>
       </c>
       <c r="B328" t="s">
         <v>4</v>
@@ -4213,7 +4223,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>29226</v>
+        <v>29016</v>
       </c>
       <c r="B329" t="s">
         <v>4</v>
@@ -4221,7 +4231,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>29239</v>
+        <v>29017</v>
       </c>
       <c r="B330" t="s">
         <v>4</v>
@@ -4229,7 +4239,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331">
-        <v>29240</v>
+        <v>29018</v>
       </c>
       <c r="B331" t="s">
         <v>4</v>
@@ -4237,7 +4247,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332">
-        <v>29255</v>
+        <v>29019</v>
       </c>
       <c r="B332" t="s">
         <v>4</v>
@@ -4245,7 +4255,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>29275</v>
+        <v>29020</v>
       </c>
       <c r="B333" t="s">
         <v>4</v>
@@ -4253,7 +4263,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334">
-        <v>29284</v>
+        <v>29023</v>
       </c>
       <c r="B334" t="s">
         <v>4</v>
@@ -4261,9 +4271,65 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335">
+        <v>29024</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>29226</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>29239</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>29240</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>29255</v>
+      </c>
+      <c r="B339" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>29275</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>29284</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342">
         <v>29477</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B342" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4277,10 +4343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4298,7 +4364,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>18704</v>
+        <v>18493</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -4306,7 +4372,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>18689</v>
+        <v>18688</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -4314,7 +4380,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>19233</v>
+        <v>18689</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -4322,7 +4388,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>22815</v>
+        <v>18690</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -4330,7 +4396,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>30950</v>
+        <v>18691</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -4338,7 +4404,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>20883</v>
+        <v>18692</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -4346,7 +4412,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>30630</v>
+        <v>18693</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -4354,7 +4420,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>30069</v>
+        <v>18694</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -4362,7 +4428,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>30412</v>
+        <v>18696</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -4370,7 +4436,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>23790</v>
+        <v>18697</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -4378,7 +4444,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>30401</v>
+        <v>18698</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -4386,7 +4452,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>23774</v>
+        <v>18699</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -4394,7 +4460,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>20882</v>
+        <v>18700</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -4402,7 +4468,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>30301</v>
+        <v>18703</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -4410,7 +4476,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>22611</v>
+        <v>18704</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -4418,7 +4484,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>23900</v>
+        <v>18705</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -4426,7 +4492,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>22589</v>
+        <v>18706</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -4434,7 +4500,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18696</v>
+        <v>18707</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -4442,7 +4508,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>23585</v>
+        <v>18708</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -4450,7 +4516,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>30944</v>
+        <v>18709</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -4458,7 +4524,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>30949</v>
+        <v>18710</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -4466,7 +4532,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>23792</v>
+        <v>18865</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -4474,7 +4540,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>24341</v>
+        <v>18866</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -4482,7 +4548,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>26569</v>
+        <v>18867</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -4490,7 +4556,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>18709</v>
+        <v>18868</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -4498,7 +4564,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>19223</v>
+        <v>18869</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -4506,7 +4572,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>22818</v>
+        <v>18870</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -4514,7 +4580,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>31010</v>
+        <v>18990</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -4522,7 +4588,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>22427</v>
+        <v>18992</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -4530,7 +4596,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>30940</v>
+        <v>19221</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -4538,7 +4604,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>18870</v>
+        <v>19222</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -4546,7 +4612,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>30640</v>
+        <v>19223</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -4554,7 +4620,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>30890</v>
+        <v>19224</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -4562,7 +4628,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>30416</v>
+        <v>19230</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -4570,7 +4636,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>19221</v>
+        <v>19233</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -4578,7 +4644,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>20895</v>
+        <v>19358</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -4586,7 +4652,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>23599</v>
+        <v>19634</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -4594,7 +4660,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>23769</v>
+        <v>20153</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -4602,7 +4668,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>23583</v>
+        <v>20311</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -4610,7 +4676,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>29962</v>
+        <v>20562</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -4618,7 +4684,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>29979</v>
+        <v>20880</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -4626,7 +4692,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>19222</v>
+        <v>20881</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -4634,7 +4700,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>23788</v>
+        <v>20882</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -4642,7 +4708,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>27922</v>
+        <v>20883</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -4650,7 +4716,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>29980</v>
+        <v>20895</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -4658,7 +4724,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>30525</v>
+        <v>20896</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -4666,7 +4732,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>22546</v>
+        <v>20897</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -4674,7 +4740,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>27920</v>
+        <v>21118</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -4682,7 +4748,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>27939</v>
+        <v>21135</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -4690,7 +4756,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>26292</v>
+        <v>21284</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -4698,7 +4764,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>23596</v>
+        <v>21285</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -4706,7 +4772,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>18869</v>
+        <v>22425</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -4714,7 +4780,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>20153</v>
+        <v>22426</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -4722,7 +4788,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>23848</v>
+        <v>22427</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -4730,7 +4796,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>23772</v>
+        <v>22521</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -4738,7 +4804,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>27919</v>
+        <v>22537</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -4746,7 +4812,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>18690</v>
+        <v>22538</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -4754,7 +4820,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>23784</v>
+        <v>22539</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -4762,7 +4828,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>18707</v>
+        <v>22540</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -4770,7 +4836,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>23767</v>
+        <v>22541</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -4778,7 +4844,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>23768</v>
+        <v>22542</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -4786,7 +4852,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>23600</v>
+        <v>22543</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -4794,7 +4860,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>27690</v>
+        <v>22544</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -4802,7 +4868,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>30304</v>
+        <v>22546</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -4810,7 +4876,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>30523</v>
+        <v>22548</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -4818,7 +4884,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>30518</v>
+        <v>22549</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -4826,7 +4892,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>22538</v>
+        <v>22589</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -4834,7 +4900,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>18699</v>
+        <v>22590</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -4842,7 +4908,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>22543</v>
+        <v>22591</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -4850,7 +4916,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>31089</v>
+        <v>22592</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -4858,7 +4924,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>23849</v>
+        <v>22602</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -4866,7 +4932,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>19230</v>
+        <v>22609</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -4874,7 +4940,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>23771</v>
+        <v>22611</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -4882,7 +4948,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>30068</v>
+        <v>22612</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -4890,7 +4956,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>18708</v>
+        <v>22779</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -4898,7 +4964,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>22814</v>
+        <v>22813</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -4906,7 +4972,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>23785</v>
+        <v>22814</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -4914,7 +4980,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>29661</v>
+        <v>22815</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -4922,7 +4988,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>18693</v>
+        <v>22816</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -4930,7 +4996,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>18867</v>
+        <v>22817</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -4938,7 +5004,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>23584</v>
+        <v>22818</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -4946,7 +5012,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>23781</v>
+        <v>22867</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -4954,7 +5020,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>30942</v>
+        <v>22868</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -4962,7 +5028,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>18703</v>
+        <v>23582</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -4970,7 +5036,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>23770</v>
+        <v>23583</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -4978,7 +5044,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>18691</v>
+        <v>23584</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -4986,7 +5052,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>18710</v>
+        <v>23585</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -4994,7 +5060,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>30524</v>
+        <v>23586</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -5002,7 +5068,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>22592</v>
+        <v>23596</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -5010,7 +5076,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>30943</v>
+        <v>23598</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -5018,7 +5084,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>22813</v>
+        <v>23599</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -5026,7 +5092,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>21118</v>
+        <v>23600</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -5034,7 +5100,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>25970</v>
+        <v>23766</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -5042,7 +5108,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>18688</v>
+        <v>23767</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -5050,7 +5116,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>20896</v>
+        <v>23768</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -5058,7 +5124,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>31224</v>
+        <v>23769</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -5066,7 +5132,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>23598</v>
+        <v>23770</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -5074,7 +5140,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>31027</v>
+        <v>23771</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -5082,7 +5148,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>23850</v>
+        <v>23772</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -5090,7 +5156,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>23842</v>
+        <v>23773</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -5098,7 +5164,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>23901</v>
+        <v>23774</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -5106,7 +5172,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>26833</v>
+        <v>23775</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -5114,7 +5180,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>23845</v>
+        <v>23776</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -5122,7 +5188,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>27915</v>
+        <v>23777</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -5130,7 +5196,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>18705</v>
+        <v>23779</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -5138,7 +5204,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>18700</v>
+        <v>23780</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -5146,7 +5212,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>18866</v>
+        <v>23781</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -5154,7 +5220,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>19634</v>
+        <v>23782</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -5162,7 +5228,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>20311</v>
+        <v>23783</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -5170,7 +5236,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>22540</v>
+        <v>23784</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -5178,7 +5244,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>22868</v>
+        <v>23785</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -5186,7 +5252,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>23782</v>
+        <v>23786</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -5194,7 +5260,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>23786</v>
+        <v>23787</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -5202,7 +5268,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>23787</v>
+        <v>23788</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -5210,7 +5276,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>23847</v>
+        <v>23789</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -5218,7 +5284,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>23857</v>
+        <v>23790</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -5226,7 +5292,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>30941</v>
+        <v>23792</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -5234,7 +5300,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>19224</v>
+        <v>23793</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -5242,7 +5308,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>23902</v>
+        <v>23842</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -5250,7 +5316,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>22816</v>
+        <v>23843</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -5258,7 +5324,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>29873</v>
+        <v>23844</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -5266,7 +5332,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>21285</v>
+        <v>23845</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -5274,7 +5340,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>30421</v>
+        <v>23846</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -5282,7 +5348,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>25052</v>
+        <v>23847</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -5290,7 +5356,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>26570</v>
+        <v>23848</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -5298,7 +5364,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>18868</v>
+        <v>23849</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -5306,7 +5372,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>18698</v>
+        <v>23850</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -5314,7 +5380,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>30882</v>
+        <v>23854</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -5322,7 +5388,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>26871</v>
+        <v>23857</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -5330,7 +5396,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>29874</v>
+        <v>23858</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -5338,7 +5404,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>30086</v>
+        <v>23859</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -5346,7 +5412,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>22590</v>
+        <v>23861</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -5354,7 +5420,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>18694</v>
+        <v>23900</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -5362,7 +5428,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>29630</v>
+        <v>23901</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -5370,7 +5436,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>20562</v>
+        <v>23902</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -5378,7 +5444,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>22521</v>
+        <v>23903</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -5386,7 +5452,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>23789</v>
+        <v>24341</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -5394,7 +5460,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>23783</v>
+        <v>25047</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -5402,7 +5468,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>23793</v>
+        <v>25052</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -5410,7 +5476,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>18706</v>
+        <v>25970</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -5418,7 +5484,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>22591</v>
+        <v>26292</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -5426,7 +5492,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>23586</v>
+        <v>26569</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -5434,7 +5500,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>23861</v>
+        <v>26570</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -5442,7 +5508,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>19358</v>
+        <v>26833</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -5450,7 +5516,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>22548</v>
+        <v>26871</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -5458,7 +5524,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>23859</v>
+        <v>27690</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -5466,7 +5532,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>22426</v>
+        <v>27913</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -5474,7 +5540,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>29983</v>
+        <v>27914</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -5482,7 +5548,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>23843</v>
+        <v>27915</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
@@ -5490,7 +5556,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>23858</v>
+        <v>27917</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -5498,7 +5564,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>29872</v>
+        <v>27918</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -5506,7 +5572,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>22609</v>
+        <v>27919</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -5514,7 +5580,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>18692</v>
+        <v>27920</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -5522,7 +5588,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>20897</v>
+        <v>27921</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -5530,7 +5596,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>22612</v>
+        <v>27922</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -5538,7 +5604,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>30087</v>
+        <v>27939</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -5546,7 +5612,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>30413</v>
+        <v>29630</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -5554,7 +5620,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>30898</v>
+        <v>29661</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -5562,7 +5628,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>23766</v>
+        <v>29872</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
@@ -5570,7 +5636,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>31267</v>
+        <v>29873</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -5578,7 +5644,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>25047</v>
+        <v>29874</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
@@ -5586,7 +5652,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>23844</v>
+        <v>29962</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -5594,7 +5660,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>23780</v>
+        <v>29970</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -5602,7 +5668,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>21284</v>
+        <v>29973</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
@@ -5610,7 +5676,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>27917</v>
+        <v>29979</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
@@ -5618,7 +5684,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>18493</v>
+        <v>29980</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -5626,7 +5692,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>27918</v>
+        <v>29983</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
@@ -5634,7 +5700,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>22537</v>
+        <v>30068</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
@@ -5642,7 +5708,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>22549</v>
+        <v>30069</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
@@ -5650,7 +5716,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>23779</v>
+        <v>30086</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
@@ -5658,7 +5724,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>22779</v>
+        <v>30087</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -5666,7 +5732,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>18865</v>
+        <v>30212</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
@@ -5674,7 +5740,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>27921</v>
+        <v>30301</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
@@ -5682,7 +5748,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>18697</v>
+        <v>30304</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
@@ -5690,7 +5756,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>20881</v>
+        <v>30401</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
@@ -5698,7 +5764,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>22867</v>
+        <v>30412</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -5706,7 +5772,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>23776</v>
+        <v>30413</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
@@ -5714,7 +5780,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>23777</v>
+        <v>30415</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
@@ -5722,7 +5788,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>30415</v>
+        <v>30416</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -5730,7 +5796,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>30212</v>
+        <v>30421</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
@@ -5738,7 +5804,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>29970</v>
+        <v>30518</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
@@ -5746,7 +5812,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>22541</v>
+        <v>30522</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -5754,7 +5820,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>23903</v>
+        <v>30523</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
@@ -5762,7 +5828,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>21135</v>
+        <v>30524</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
@@ -5770,7 +5836,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>30522</v>
+        <v>30525</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -5778,7 +5844,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>22602</v>
+        <v>30630</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -5786,7 +5852,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>29973</v>
+        <v>30640</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -5794,7 +5860,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>23846</v>
+        <v>30882</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
@@ -5802,7 +5868,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>20880</v>
+        <v>30890</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
@@ -5810,7 +5876,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>22542</v>
+        <v>30898</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
@@ -5818,7 +5884,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>22817</v>
+        <v>30940</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -5826,7 +5892,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>22544</v>
+        <v>30941</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
@@ -5834,7 +5900,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>27914</v>
+        <v>30942</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
@@ -5842,7 +5908,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>23582</v>
+        <v>30943</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
@@ -5850,7 +5916,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>23773</v>
+        <v>30944</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
@@ -5858,7 +5924,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>27913</v>
+        <v>30949</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
@@ -5866,13 +5932,56 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>22539</v>
+        <v>30950</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>31010</v>
+      </c>
+      <c r="B199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>31027</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>31089</v>
+      </c>
+      <c r="B201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>31224</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>31267</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:B198">
+    <sortCondition ref="A2:A198"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model/node_lists.xlsx
+++ b/Model/node_lists.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7220" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7220"/>
   </bookViews>
   <sheets>
     <sheet name="generation_only" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="8">
   <si>
     <t>station</t>
   </si>
@@ -400,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4343,10 +4343,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B203"/>
+  <dimension ref="A1:B222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132"/>
+    <sheetView topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="N215" sqref="N215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5978,6 +5978,158 @@
         <v>3</v>
       </c>
     </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>275</v>
+      </c>
+      <c r="B204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>2414</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>4097</v>
+      </c>
+      <c r="B206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>4478</v>
+      </c>
+      <c r="B207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>4507</v>
+      </c>
+      <c r="B208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>6134</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>6696</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>6913</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>9456</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>9840</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>29803</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>29924</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>30897</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>28617</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>28505</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>28506</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>30852</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>28635</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>23778</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B198">
     <sortCondition ref="A2:A198"/>

--- a/Model/node_lists.xlsx
+++ b/Model/node_lists.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkern\Documents\GitHub\NCGridMod\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lprieto\Documents\Fall 2020\ENVR 890\NCGridMod\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7220"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="generation_only" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="8">
   <si>
     <t>station</t>
   </si>
@@ -122,7 +122,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -400,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,7 +574,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>6024</v>
+        <v>6048</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -560,7 +582,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>6048</v>
+        <v>6177</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -568,7 +590,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>6177</v>
+        <v>6178</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -576,31 +598,31 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>6178</v>
+        <v>6403</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>6403</v>
+        <v>6407</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>6407</v>
+        <v>6408</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>6408</v>
+        <v>6650</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -608,15 +630,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>6650</v>
+        <v>6651</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>6651</v>
+        <v>6654</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -624,7 +646,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>6654</v>
+        <v>6655</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -632,7 +654,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>6655</v>
+        <v>6656</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -640,7 +662,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>6656</v>
+        <v>6660</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -648,7 +670,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>6660</v>
+        <v>6665</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -656,7 +678,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>6665</v>
+        <v>6666</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -664,7 +686,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>6666</v>
+        <v>6678</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -672,15 +694,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>6678</v>
+        <v>6680</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>6679</v>
+        <v>6683</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -688,7 +710,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>6680</v>
+        <v>6695</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -696,7 +718,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>6683</v>
+        <v>6701</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -704,15 +726,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>6695</v>
+        <v>6888</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>6701</v>
+        <v>6890</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -720,7 +742,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>6888</v>
+        <v>6891</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -728,23 +750,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>6890</v>
+        <v>6907</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>6891</v>
+        <v>6930</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>6907</v>
+        <v>6938</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -752,15 +774,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>6930</v>
+        <v>6939</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>6938</v>
+        <v>6941</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -768,15 +790,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>6939</v>
+        <v>6942</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>6941</v>
+        <v>6953</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -784,23 +806,23 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>6942</v>
+        <v>6955</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>6953</v>
+        <v>6956</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>6955</v>
+        <v>6966</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -808,7 +830,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>6956</v>
+        <v>7011</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -816,7 +838,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>6966</v>
+        <v>7026</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -824,7 +846,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>6982</v>
+        <v>7031</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -832,15 +854,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>7011</v>
+        <v>7046</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>7026</v>
+        <v>7061</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -848,39 +870,39 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>7031</v>
+        <v>7065</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>7046</v>
+        <v>7067</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>7061</v>
+        <v>7555</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>7064</v>
+        <v>7557</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>7065</v>
+        <v>7559</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -888,7 +910,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>7067</v>
+        <v>7599</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -896,23 +918,23 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>7555</v>
+        <v>7600</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>7557</v>
+        <v>7601</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>7559</v>
+        <v>7602</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -920,7 +942,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>7599</v>
+        <v>7608</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -928,63 +950,63 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>7600</v>
+        <v>7618</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>7601</v>
+        <v>9441</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>7602</v>
+        <v>9505</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>7608</v>
+        <v>9506</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>7618</v>
+        <v>9824</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>7798</v>
+        <v>9850</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>9441</v>
+        <v>9851</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>9505</v>
+        <v>9873</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -992,15 +1014,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>9506</v>
+        <v>10009</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>9824</v>
+        <v>10017</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -1008,15 +1030,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>9850</v>
+        <v>10018</v>
       </c>
       <c r="B76" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>9851</v>
+        <v>10125</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -1024,15 +1046,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>9873</v>
+        <v>10126</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>10009</v>
+        <v>10127</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -1040,7 +1062,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>10015</v>
+        <v>10707</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -1048,167 +1070,167 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>10017</v>
+        <v>12162</v>
       </c>
       <c r="B81" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>10018</v>
+        <v>14366</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>10019</v>
+        <v>14549</v>
       </c>
       <c r="B83" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>10125</v>
+        <v>15630</v>
       </c>
       <c r="B84" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>10126</v>
+        <v>15661</v>
       </c>
       <c r="B85" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>10127</v>
+        <v>15690</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>10128</v>
+        <v>15691</v>
       </c>
       <c r="B87" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>10129</v>
+        <v>16289</v>
       </c>
       <c r="B88" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>10707</v>
+        <v>16404</v>
       </c>
       <c r="B89" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>12162</v>
+        <v>28471</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>12414</v>
+        <v>28509</v>
       </c>
       <c r="B91" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>14366</v>
+        <v>28601</v>
       </c>
       <c r="B92" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>14549</v>
+        <v>28636</v>
       </c>
       <c r="B93" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>15630</v>
+        <v>28662</v>
       </c>
       <c r="B94" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>15661</v>
+        <v>28667</v>
       </c>
       <c r="B95" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>15662</v>
+        <v>28703</v>
       </c>
       <c r="B96" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>15690</v>
+        <v>28711</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>15691</v>
+        <v>28714</v>
       </c>
       <c r="B98" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>16289</v>
+        <v>28719</v>
       </c>
       <c r="B99" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>16404</v>
+        <v>28946</v>
       </c>
       <c r="B100" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>28471</v>
+        <v>28991</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
@@ -1216,7 +1238,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>28509</v>
+        <v>29002</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
@@ -1224,7 +1246,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>28601</v>
+        <v>29015</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
@@ -1232,7 +1254,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>28636</v>
+        <v>29021</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
@@ -1240,105 +1262,9 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>28662</v>
+        <v>29262</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>28667</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>28703</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>28711</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>28714</v>
-      </c>
-      <c r="B109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>28719</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>28946</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>28991</v>
-      </c>
-      <c r="B112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>28994</v>
-      </c>
-      <c r="B113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>29002</v>
-      </c>
-      <c r="B114" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>29015</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>29021</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>29262</v>
-      </c>
-      <c r="B117" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1578,16 +1504,19 @@
   <sortState ref="A2:B179">
     <sortCondition ref="A2:A179"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A105">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1727,23 +1656,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1918</v>
+        <v>1924</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1924</v>
+        <v>1960</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1960</v>
+        <v>2042</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1751,7 +1680,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2042</v>
+        <v>2415</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1759,7 +1688,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2050</v>
+        <v>2416</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1767,7 +1696,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1775,7 +1704,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1783,7 +1712,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2417</v>
+        <v>2907</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -1791,23 +1720,23 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2418</v>
+        <v>3088</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2907</v>
+        <v>3484</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>3087</v>
+        <v>3485</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -1815,23 +1744,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>3088</v>
+        <v>3493</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>3484</v>
+        <v>3494</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>3485</v>
+        <v>3497</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -1839,23 +1768,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>3493</v>
+        <v>3498</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>3494</v>
+        <v>4095</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>3497</v>
+        <v>4096</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -1863,7 +1792,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>3498</v>
+        <v>4098</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1871,31 +1800,31 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>4095</v>
+        <v>4099</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>4096</v>
+        <v>4169</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>4098</v>
+        <v>4459</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>4099</v>
+        <v>4475</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -1903,71 +1832,71 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>4166</v>
+        <v>4484</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>4169</v>
+        <v>4517</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>4459</v>
+        <v>5117</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>4475</v>
+        <v>5608</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>4484</v>
+        <v>6131</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>4496</v>
+        <v>6400</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>4517</v>
+        <v>6402</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>5117</v>
+        <v>6404</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>5608</v>
+        <v>6405</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -1975,15 +1904,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>6131</v>
+        <v>6422</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>6400</v>
+        <v>6423</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -1991,7 +1920,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>6402</v>
+        <v>6586</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -1999,39 +1928,39 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>6404</v>
+        <v>6641</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>6405</v>
+        <v>6646</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>6422</v>
+        <v>6647</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>6423</v>
+        <v>6652</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>6586</v>
+        <v>6657</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -2039,7 +1968,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>6641</v>
+        <v>6658</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2047,7 +1976,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>6646</v>
+        <v>6659</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -2055,23 +1984,23 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>6647</v>
+        <v>6661</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>6652</v>
+        <v>6662</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>6657</v>
+        <v>6663</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -2079,15 +2008,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>6658</v>
+        <v>6664</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>6659</v>
+        <v>6667</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -2095,7 +2024,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>6661</v>
+        <v>6668</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -2103,15 +2032,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>6662</v>
+        <v>6669</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>6663</v>
+        <v>6670</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -2119,15 +2048,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>6664</v>
+        <v>6671</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>6667</v>
+        <v>6673</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -2135,31 +2064,31 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>6668</v>
+        <v>6674</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>6669</v>
+        <v>6675</v>
       </c>
       <c r="B69" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>6670</v>
+        <v>6676</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>6671</v>
+        <v>6677</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -2167,15 +2096,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>6673</v>
+        <v>6681</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>6674</v>
+        <v>6682</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -2183,15 +2112,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>6675</v>
+        <v>6684</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>6676</v>
+        <v>6685</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -2199,7 +2128,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>6677</v>
+        <v>6687</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -2207,15 +2136,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>6681</v>
+        <v>6688</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>6682</v>
+        <v>6689</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -2223,23 +2152,23 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>6684</v>
+        <v>6690</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>6685</v>
+        <v>6691</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>6687</v>
+        <v>6692</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -2247,15 +2176,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>6688</v>
+        <v>6697</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>6689</v>
+        <v>6698</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -2263,7 +2192,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>6690</v>
+        <v>6699</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
@@ -2271,7 +2200,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>6691</v>
+        <v>6700</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -2279,15 +2208,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>6692</v>
+        <v>6703</v>
       </c>
       <c r="B86" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>6697</v>
+        <v>6889</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -2295,7 +2224,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>6698</v>
+        <v>6892</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -2303,15 +2232,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>6699</v>
+        <v>6893</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>6700</v>
+        <v>6894</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -2319,7 +2248,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>6703</v>
+        <v>6895</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -2327,15 +2256,15 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>6889</v>
+        <v>6897</v>
       </c>
       <c r="B92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>6892</v>
+        <v>6900</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -2343,7 +2272,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>6893</v>
+        <v>6901</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -2351,31 +2280,31 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>6894</v>
+        <v>6902</v>
       </c>
       <c r="B95" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>6895</v>
+        <v>6903</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>6897</v>
+        <v>6904</v>
       </c>
       <c r="B97" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>6900</v>
+        <v>6905</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -2383,7 +2312,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>6901</v>
+        <v>6906</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -2391,7 +2320,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>6902</v>
+        <v>6912</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -2399,23 +2328,23 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>6903</v>
+        <v>6916</v>
       </c>
       <c r="B101" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>6904</v>
+        <v>6922</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>6905</v>
+        <v>6940</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -2423,15 +2352,15 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>6906</v>
+        <v>6954</v>
       </c>
       <c r="B104" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>6912</v>
+        <v>6964</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -2439,7 +2368,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>6916</v>
+        <v>6965</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -2447,23 +2376,23 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>6922</v>
+        <v>6967</v>
       </c>
       <c r="B107" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>6940</v>
+        <v>6968</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>6954</v>
+        <v>6969</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -2471,7 +2400,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>6964</v>
+        <v>6971</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -2479,7 +2408,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>6965</v>
+        <v>6972</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
@@ -2487,15 +2416,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>6967</v>
+        <v>6974</v>
       </c>
       <c r="B112" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>6968</v>
+        <v>6976</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
@@ -2503,15 +2432,15 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>6969</v>
+        <v>6977</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>6971</v>
+        <v>6978</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -2519,7 +2448,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>6972</v>
+        <v>6980</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -2527,7 +2456,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>6974</v>
+        <v>6981</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -2535,7 +2464,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>6976</v>
+        <v>6984</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -2543,7 +2472,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>6977</v>
+        <v>6986</v>
       </c>
       <c r="B119" t="s">
         <v>1</v>
@@ -2551,7 +2480,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>6978</v>
+        <v>6987</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
@@ -2559,23 +2488,23 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>6980</v>
+        <v>7014</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>6981</v>
+        <v>7041</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>6984</v>
+        <v>7044</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -2583,15 +2512,15 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>6986</v>
+        <v>7045</v>
       </c>
       <c r="B124" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>6987</v>
+        <v>7047</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -2599,7 +2528,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>6991</v>
+        <v>7049</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -2607,7 +2536,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>7014</v>
+        <v>7062</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
@@ -2615,7 +2544,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>7041</v>
+        <v>7066</v>
       </c>
       <c r="B128" t="s">
         <v>1</v>
@@ -2623,31 +2552,31 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>7044</v>
+        <v>7089</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>7045</v>
+        <v>7092</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>7047</v>
+        <v>7566</v>
       </c>
       <c r="B131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>7049</v>
+        <v>7587</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
@@ -2655,7 +2584,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>7050</v>
+        <v>7588</v>
       </c>
       <c r="B133" t="s">
         <v>1</v>
@@ -2663,15 +2592,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>7062</v>
+        <v>7589</v>
       </c>
       <c r="B134" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>7066</v>
+        <v>7590</v>
       </c>
       <c r="B135" t="s">
         <v>1</v>
@@ -2679,7 +2608,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>7089</v>
+        <v>7591</v>
       </c>
       <c r="B136" t="s">
         <v>1</v>
@@ -2687,7 +2616,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>7091</v>
+        <v>7592</v>
       </c>
       <c r="B137" t="s">
         <v>1</v>
@@ -2695,47 +2624,47 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>7092</v>
+        <v>7597</v>
       </c>
       <c r="B138" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>7566</v>
+        <v>7607</v>
       </c>
       <c r="B139" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>7587</v>
+        <v>7619</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>7588</v>
+        <v>7699</v>
       </c>
       <c r="B141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>7589</v>
+        <v>7700</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>7590</v>
+        <v>7701</v>
       </c>
       <c r="B143" t="s">
         <v>1</v>
@@ -2743,7 +2672,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>7591</v>
+        <v>7702</v>
       </c>
       <c r="B144" t="s">
         <v>1</v>
@@ -2751,7 +2680,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>7592</v>
+        <v>7703</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
@@ -2759,7 +2688,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>7597</v>
+        <v>9412</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
@@ -2767,7 +2696,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>7607</v>
+        <v>9413</v>
       </c>
       <c r="B147" t="s">
         <v>2</v>
@@ -2775,7 +2704,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>7619</v>
+        <v>9414</v>
       </c>
       <c r="B148" t="s">
         <v>1</v>
@@ -2783,15 +2712,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>7699</v>
+        <v>9418</v>
       </c>
       <c r="B149" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>7700</v>
+        <v>9419</v>
       </c>
       <c r="B150" t="s">
         <v>1</v>
@@ -2799,7 +2728,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>7701</v>
+        <v>9440</v>
       </c>
       <c r="B151" t="s">
         <v>1</v>
@@ -2807,7 +2736,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>7702</v>
+        <v>9455</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -2815,103 +2744,103 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>7703</v>
+        <v>9457</v>
       </c>
       <c r="B153" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>9412</v>
+        <v>9458</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>9413</v>
+        <v>9479</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>9414</v>
+        <v>9480</v>
       </c>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>9418</v>
+        <v>9483</v>
       </c>
       <c r="B157" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>9419</v>
+        <v>9484</v>
       </c>
       <c r="B158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>9439</v>
+        <v>9487</v>
       </c>
       <c r="B159" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>9440</v>
+        <v>9488</v>
       </c>
       <c r="B160" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>9453</v>
+        <v>9507</v>
       </c>
       <c r="B161" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>9454</v>
+        <v>9508</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>9455</v>
+        <v>9820</v>
       </c>
       <c r="B163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>9457</v>
+        <v>9821</v>
       </c>
       <c r="B164" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>9458</v>
+        <v>9822</v>
       </c>
       <c r="B165" t="s">
         <v>1</v>
@@ -2919,23 +2848,23 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>9477</v>
+        <v>9823</v>
       </c>
       <c r="B166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>9479</v>
+        <v>9825</v>
       </c>
       <c r="B167" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>9480</v>
+        <v>9829</v>
       </c>
       <c r="B168" t="s">
         <v>0</v>
@@ -2943,55 +2872,55 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>9483</v>
+        <v>9830</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>9484</v>
+        <v>9831</v>
       </c>
       <c r="B170" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>9487</v>
+        <v>9832</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>9488</v>
+        <v>9833</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>9507</v>
+        <v>9834</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>9508</v>
+        <v>9835</v>
       </c>
       <c r="B174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>9820</v>
+        <v>9836</v>
       </c>
       <c r="B175" t="s">
         <v>0</v>
@@ -2999,31 +2928,31 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>9821</v>
+        <v>9838</v>
       </c>
       <c r="B176" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>9822</v>
+        <v>9841</v>
       </c>
       <c r="B177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>9823</v>
+        <v>9846</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>9825</v>
+        <v>9849</v>
       </c>
       <c r="B179" t="s">
         <v>0</v>
@@ -3031,7 +2960,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>9829</v>
+        <v>9852</v>
       </c>
       <c r="B180" t="s">
         <v>0</v>
@@ -3039,15 +2968,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>9830</v>
+        <v>9858</v>
       </c>
       <c r="B181" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>9831</v>
+        <v>9859</v>
       </c>
       <c r="B182" t="s">
         <v>1</v>
@@ -3055,7 +2984,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>9832</v>
+        <v>9862</v>
       </c>
       <c r="B183" t="s">
         <v>0</v>
@@ -3063,7 +2992,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>9833</v>
+        <v>9863</v>
       </c>
       <c r="B184" t="s">
         <v>0</v>
@@ -3071,15 +3000,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>9834</v>
+        <v>9865</v>
       </c>
       <c r="B185" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>9835</v>
+        <v>9867</v>
       </c>
       <c r="B186" t="s">
         <v>0</v>
@@ -3087,31 +3016,31 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>9836</v>
+        <v>9868</v>
       </c>
       <c r="B187" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>9837</v>
+        <v>9869</v>
       </c>
       <c r="B188" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>9838</v>
+        <v>9870</v>
       </c>
       <c r="B189" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>9841</v>
+        <v>9871</v>
       </c>
       <c r="B190" t="s">
         <v>0</v>
@@ -3119,23 +3048,23 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>9846</v>
+        <v>9872</v>
       </c>
       <c r="B191" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>9849</v>
+        <v>9874</v>
       </c>
       <c r="B192" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>9852</v>
+        <v>9876</v>
       </c>
       <c r="B193" t="s">
         <v>0</v>
@@ -3143,23 +3072,23 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>9858</v>
+        <v>9877</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>9859</v>
+        <v>9881</v>
       </c>
       <c r="B195" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>9862</v>
+        <v>9885</v>
       </c>
       <c r="B196" t="s">
         <v>0</v>
@@ -3167,31 +3096,31 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>9863</v>
+        <v>9886</v>
       </c>
       <c r="B197" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>9864</v>
+        <v>9887</v>
       </c>
       <c r="B198" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>9865</v>
+        <v>9994</v>
       </c>
       <c r="B199" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>9866</v>
+        <v>9995</v>
       </c>
       <c r="B200" t="s">
         <v>0</v>
@@ -3199,7 +3128,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>9867</v>
+        <v>10002</v>
       </c>
       <c r="B201" t="s">
         <v>0</v>
@@ -3207,23 +3136,23 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>9868</v>
+        <v>10012</v>
       </c>
       <c r="B202" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>9869</v>
+        <v>10013</v>
       </c>
       <c r="B203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>9870</v>
+        <v>10014</v>
       </c>
       <c r="B204" t="s">
         <v>0</v>
@@ -3231,7 +3160,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>9871</v>
+        <v>10016</v>
       </c>
       <c r="B205" t="s">
         <v>0</v>
@@ -3239,7 +3168,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>9872</v>
+        <v>10022</v>
       </c>
       <c r="B206" t="s">
         <v>1</v>
@@ -3247,7 +3176,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>9874</v>
+        <v>10024</v>
       </c>
       <c r="B207" t="s">
         <v>1</v>
@@ -3255,7 +3184,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>9876</v>
+        <v>10029</v>
       </c>
       <c r="B208" t="s">
         <v>0</v>
@@ -3263,79 +3192,79 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>9877</v>
+        <v>10037</v>
       </c>
       <c r="B209" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>9881</v>
+        <v>10038</v>
       </c>
       <c r="B210" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>9885</v>
+        <v>10039</v>
       </c>
       <c r="B211" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>9886</v>
+        <v>10048</v>
       </c>
       <c r="B212" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>9887</v>
+        <v>10051</v>
       </c>
       <c r="B213" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>9994</v>
+        <v>10052</v>
       </c>
       <c r="B214" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>9995</v>
+        <v>10053</v>
       </c>
       <c r="B215" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>10002</v>
+        <v>10054</v>
       </c>
       <c r="B216" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>10012</v>
+        <v>10123</v>
       </c>
       <c r="B217" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>10013</v>
+        <v>10124</v>
       </c>
       <c r="B218" t="s">
         <v>0</v>
@@ -3343,95 +3272,95 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>10014</v>
+        <v>10835</v>
       </c>
       <c r="B219" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>10016</v>
+        <v>10836</v>
       </c>
       <c r="B220" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>10022</v>
+        <v>10875</v>
       </c>
       <c r="B221" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="2">
-        <v>10023</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>1</v>
+      <c r="A222">
+        <v>11709</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>10024</v>
+        <v>11731</v>
       </c>
       <c r="B223" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>10029</v>
+        <v>11742</v>
       </c>
       <c r="B224" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>10037</v>
+        <v>11856</v>
       </c>
       <c r="B225" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>10038</v>
+        <v>12417</v>
       </c>
       <c r="B226" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>10039</v>
+        <v>12430</v>
       </c>
       <c r="B227" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>10048</v>
+        <v>12432</v>
       </c>
       <c r="B228" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>10051</v>
+        <v>12439</v>
       </c>
       <c r="B229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>10052</v>
+        <v>13301</v>
       </c>
       <c r="B230" t="s">
         <v>1</v>
@@ -3439,7 +3368,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>10053</v>
+        <v>13431</v>
       </c>
       <c r="B231" t="s">
         <v>1</v>
@@ -3447,7 +3376,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>10054</v>
+        <v>13780</v>
       </c>
       <c r="B232" t="s">
         <v>1</v>
@@ -3455,71 +3384,71 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>10058</v>
+        <v>13841</v>
       </c>
       <c r="B233" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>10123</v>
+        <v>13843</v>
       </c>
       <c r="B234" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>10124</v>
+        <v>13956</v>
       </c>
       <c r="B235" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>10835</v>
+        <v>14194</v>
       </c>
       <c r="B236" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>10836</v>
+        <v>14258</v>
       </c>
       <c r="B237" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>10875</v>
+        <v>14283</v>
       </c>
       <c r="B238" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>11709</v>
+        <v>14301</v>
       </c>
       <c r="B239" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>11731</v>
+        <v>14322</v>
       </c>
       <c r="B240" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>11742</v>
+        <v>14521</v>
       </c>
       <c r="B241" t="s">
         <v>1</v>
@@ -3527,7 +3456,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>11856</v>
+        <v>14783</v>
       </c>
       <c r="B242" t="s">
         <v>1</v>
@@ -3535,15 +3464,15 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>12417</v>
+        <v>15226</v>
       </c>
       <c r="B243" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>12430</v>
+        <v>15512</v>
       </c>
       <c r="B244" t="s">
         <v>1</v>
@@ -3551,7 +3480,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>12432</v>
+        <v>15622</v>
       </c>
       <c r="B245" t="s">
         <v>1</v>
@@ -3559,7 +3488,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>12439</v>
+        <v>15626</v>
       </c>
       <c r="B246" t="s">
         <v>1</v>
@@ -3567,7 +3496,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>13301</v>
+        <v>15628</v>
       </c>
       <c r="B247" t="s">
         <v>1</v>
@@ -3575,7 +3504,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>13431</v>
+        <v>15629</v>
       </c>
       <c r="B248" t="s">
         <v>1</v>
@@ -3583,7 +3512,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>13721</v>
+        <v>15632</v>
       </c>
       <c r="B249" t="s">
         <v>1</v>
@@ -3591,15 +3520,15 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>13780</v>
+        <v>15641</v>
       </c>
       <c r="B250" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>13841</v>
+        <v>15664</v>
       </c>
       <c r="B251" t="s">
         <v>1</v>
@@ -3607,7 +3536,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>13843</v>
+        <v>15666</v>
       </c>
       <c r="B252" t="s">
         <v>1</v>
@@ -3615,7 +3544,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>13956</v>
+        <v>15689</v>
       </c>
       <c r="B253" t="s">
         <v>1</v>
@@ -3623,7 +3552,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>14194</v>
+        <v>15692</v>
       </c>
       <c r="B254" t="s">
         <v>1</v>
@@ -3631,7 +3560,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>14258</v>
+        <v>15776</v>
       </c>
       <c r="B255" t="s">
         <v>1</v>
@@ -3639,7 +3568,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>14283</v>
+        <v>15777</v>
       </c>
       <c r="B256" t="s">
         <v>1</v>
@@ -3647,7 +3576,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>14301</v>
+        <v>15782</v>
       </c>
       <c r="B257" t="s">
         <v>1</v>
@@ -3655,7 +3584,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>14322</v>
+        <v>16281</v>
       </c>
       <c r="B258" t="s">
         <v>1</v>
@@ -3663,7 +3592,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>14521</v>
+        <v>16490</v>
       </c>
       <c r="B259" t="s">
         <v>1</v>
@@ -3671,7 +3600,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>14626</v>
+        <v>17072</v>
       </c>
       <c r="B260" t="s">
         <v>1</v>
@@ -3679,7 +3608,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>14783</v>
+        <v>17163</v>
       </c>
       <c r="B261" t="s">
         <v>1</v>
@@ -3687,15 +3616,15 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>15226</v>
+        <v>17329</v>
       </c>
       <c r="B262" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>15511</v>
+        <v>17632</v>
       </c>
       <c r="B263" t="s">
         <v>1</v>
@@ -3703,7 +3632,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>15512</v>
+        <v>18280</v>
       </c>
       <c r="B264" t="s">
         <v>1</v>
@@ -3711,199 +3640,199 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>15622</v>
+        <v>28211</v>
       </c>
       <c r="B265" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>15626</v>
+        <v>28470</v>
       </c>
       <c r="B266" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>15628</v>
+        <v>28501</v>
       </c>
       <c r="B267" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>15629</v>
+        <v>28502</v>
       </c>
       <c r="B268" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>15632</v>
+        <v>28652</v>
       </c>
       <c r="B269" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>15641</v>
+        <v>28663</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>15664</v>
+        <v>28664</v>
       </c>
       <c r="B271" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>15666</v>
+        <v>28665</v>
       </c>
       <c r="B272" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>15689</v>
+        <v>28666</v>
       </c>
       <c r="B273" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>15692</v>
+        <v>28668</v>
       </c>
       <c r="B274" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>15775</v>
+        <v>28669</v>
       </c>
       <c r="B275" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>15776</v>
+        <v>28670</v>
       </c>
       <c r="B276" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>15777</v>
+        <v>28671</v>
       </c>
       <c r="B277" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>15782</v>
+        <v>28673</v>
       </c>
       <c r="B278" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>16162</v>
+        <v>28697</v>
       </c>
       <c r="B279" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>16281</v>
+        <v>28698</v>
       </c>
       <c r="B280" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>16490</v>
+        <v>28699</v>
       </c>
       <c r="B281" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>16911</v>
+        <v>28700</v>
       </c>
       <c r="B282" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>17072</v>
+        <v>28702</v>
       </c>
       <c r="B283" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>17163</v>
+        <v>28704</v>
       </c>
       <c r="B284" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>17329</v>
+        <v>28707</v>
       </c>
       <c r="B285" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>17632</v>
+        <v>28710</v>
       </c>
       <c r="B286" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>17633</v>
+        <v>28718</v>
       </c>
       <c r="B287" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>18280</v>
+        <v>28766</v>
       </c>
       <c r="B288" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>28211</v>
+        <v>28767</v>
       </c>
       <c r="B289" t="s">
         <v>4</v>
@@ -3911,7 +3840,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>28470</v>
+        <v>28770</v>
       </c>
       <c r="B290" t="s">
         <v>4</v>
@@ -3919,7 +3848,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>28501</v>
+        <v>28771</v>
       </c>
       <c r="B291" t="s">
         <v>4</v>
@@ -3927,7 +3856,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>28502</v>
+        <v>28945</v>
       </c>
       <c r="B292" t="s">
         <v>4</v>
@@ -3935,7 +3864,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>28652</v>
+        <v>28947</v>
       </c>
       <c r="B293" t="s">
         <v>4</v>
@@ -3943,7 +3872,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>28663</v>
+        <v>28953</v>
       </c>
       <c r="B294" t="s">
         <v>4</v>
@@ -3951,7 +3880,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>28664</v>
+        <v>28954</v>
       </c>
       <c r="B295" t="s">
         <v>4</v>
@@ -3959,7 +3888,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>28665</v>
+        <v>28955</v>
       </c>
       <c r="B296" t="s">
         <v>4</v>
@@ -3967,7 +3896,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>28666</v>
+        <v>28990</v>
       </c>
       <c r="B297" t="s">
         <v>4</v>
@@ -3975,7 +3904,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>28668</v>
+        <v>28993</v>
       </c>
       <c r="B298" t="s">
         <v>4</v>
@@ -3983,7 +3912,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>28669</v>
+        <v>28995</v>
       </c>
       <c r="B299" t="s">
         <v>4</v>
@@ -3991,7 +3920,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>28670</v>
+        <v>28998</v>
       </c>
       <c r="B300" t="s">
         <v>4</v>
@@ -3999,7 +3928,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>28671</v>
+        <v>29001</v>
       </c>
       <c r="B301" t="s">
         <v>4</v>
@@ -4007,7 +3936,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>28673</v>
+        <v>29016</v>
       </c>
       <c r="B302" t="s">
         <v>4</v>
@@ -4015,7 +3944,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>28697</v>
+        <v>29017</v>
       </c>
       <c r="B303" t="s">
         <v>4</v>
@@ -4023,7 +3952,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>28698</v>
+        <v>29018</v>
       </c>
       <c r="B304" t="s">
         <v>4</v>
@@ -4031,7 +3960,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>28699</v>
+        <v>29019</v>
       </c>
       <c r="B305" t="s">
         <v>4</v>
@@ -4039,7 +3968,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>28700</v>
+        <v>29020</v>
       </c>
       <c r="B306" t="s">
         <v>4</v>
@@ -4047,7 +3976,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>28702</v>
+        <v>29023</v>
       </c>
       <c r="B307" t="s">
         <v>4</v>
@@ -4055,7 +3984,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>28704</v>
+        <v>29024</v>
       </c>
       <c r="B308" t="s">
         <v>4</v>
@@ -4063,7 +3992,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>28706</v>
+        <v>29226</v>
       </c>
       <c r="B309" t="s">
         <v>4</v>
@@ -4071,7 +4000,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>28707</v>
+        <v>29239</v>
       </c>
       <c r="B310" t="s">
         <v>4</v>
@@ -4079,7 +4008,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>28710</v>
+        <v>29240</v>
       </c>
       <c r="B311" t="s">
         <v>4</v>
@@ -4087,7 +4016,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>28718</v>
+        <v>29255</v>
       </c>
       <c r="B312" t="s">
         <v>4</v>
@@ -4095,241 +4024,9 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>28766</v>
+        <v>29284</v>
       </c>
       <c r="B313" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314">
-        <v>28767</v>
-      </c>
-      <c r="B314" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315">
-        <v>28770</v>
-      </c>
-      <c r="B315" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316">
-        <v>28771</v>
-      </c>
-      <c r="B316" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317">
-        <v>28945</v>
-      </c>
-      <c r="B317" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318">
-        <v>28947</v>
-      </c>
-      <c r="B318" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319">
-        <v>28951</v>
-      </c>
-      <c r="B319" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320">
-        <v>28953</v>
-      </c>
-      <c r="B320" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321">
-        <v>28954</v>
-      </c>
-      <c r="B321" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322">
-        <v>28955</v>
-      </c>
-      <c r="B322" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323">
-        <v>28990</v>
-      </c>
-      <c r="B323" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324">
-        <v>28993</v>
-      </c>
-      <c r="B324" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325">
-        <v>28995</v>
-      </c>
-      <c r="B325" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326">
-        <v>28998</v>
-      </c>
-      <c r="B326" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327">
-        <v>28999</v>
-      </c>
-      <c r="B327" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328">
-        <v>29001</v>
-      </c>
-      <c r="B328" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329">
-        <v>29016</v>
-      </c>
-      <c r="B329" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330">
-        <v>29017</v>
-      </c>
-      <c r="B330" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331">
-        <v>29018</v>
-      </c>
-      <c r="B331" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332">
-        <v>29019</v>
-      </c>
-      <c r="B332" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333">
-        <v>29020</v>
-      </c>
-      <c r="B333" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334">
-        <v>29023</v>
-      </c>
-      <c r="B334" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335">
-        <v>29024</v>
-      </c>
-      <c r="B335" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336">
-        <v>29226</v>
-      </c>
-      <c r="B336" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337">
-        <v>29239</v>
-      </c>
-      <c r="B337" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338">
-        <v>29240</v>
-      </c>
-      <c r="B338" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339">
-        <v>29255</v>
-      </c>
-      <c r="B339" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340">
-        <v>29275</v>
-      </c>
-      <c r="B340" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341">
-        <v>29284</v>
-      </c>
-      <c r="B341" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A342">
-        <v>29477</v>
-      </c>
-      <c r="B342" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4337,16 +4034,19 @@
   <sortState ref="A2:B338">
     <sortCondition ref="A2:A338"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A313">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B222"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="N215" sqref="N215"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5068,7 +4768,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>23596</v>
+        <v>23598</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -5076,7 +4776,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>23598</v>
+        <v>23599</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -5084,7 +4784,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>23599</v>
+        <v>23600</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -5092,7 +4792,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>23600</v>
+        <v>23766</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -5100,7 +4800,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>23766</v>
+        <v>23767</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -5108,7 +4808,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>23767</v>
+        <v>23768</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -5116,7 +4816,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>23768</v>
+        <v>23769</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -5124,7 +4824,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>23769</v>
+        <v>23770</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -5132,7 +4832,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>23770</v>
+        <v>23771</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -5140,7 +4840,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>23771</v>
+        <v>23772</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -5148,7 +4848,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>23772</v>
+        <v>23773</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -5156,7 +4856,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>23773</v>
+        <v>23774</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -5164,7 +4864,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>23774</v>
+        <v>23776</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -5172,7 +4872,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>23775</v>
+        <v>23777</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -5180,7 +4880,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>23776</v>
+        <v>23779</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -5188,7 +4888,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>23777</v>
+        <v>23780</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -5196,7 +4896,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>23779</v>
+        <v>23781</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -5204,7 +4904,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>23780</v>
+        <v>23782</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -5212,7 +4912,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>23781</v>
+        <v>23783</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -5220,7 +4920,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>23782</v>
+        <v>23784</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -5228,7 +4928,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>23783</v>
+        <v>23785</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -5236,7 +4936,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>23784</v>
+        <v>23786</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -5244,7 +4944,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>23785</v>
+        <v>23787</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -5252,7 +4952,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>23786</v>
+        <v>23788</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -5260,7 +4960,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>23787</v>
+        <v>23789</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -5268,7 +4968,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>23788</v>
+        <v>23790</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -5276,7 +4976,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>23789</v>
+        <v>23792</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -5284,7 +4984,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>23790</v>
+        <v>23793</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -5292,7 +4992,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>23792</v>
+        <v>23842</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -5300,7 +5000,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>23793</v>
+        <v>23843</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -5308,7 +5008,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>23842</v>
+        <v>23844</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -5316,7 +5016,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>23843</v>
+        <v>23845</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -5324,7 +5024,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>23844</v>
+        <v>23846</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -5332,7 +5032,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>23845</v>
+        <v>23847</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -5340,7 +5040,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>23846</v>
+        <v>23848</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -5348,7 +5048,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>23847</v>
+        <v>23849</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -5356,7 +5056,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>23848</v>
+        <v>23850</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -5364,7 +5064,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>23849</v>
+        <v>23854</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -5372,7 +5072,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>23850</v>
+        <v>23857</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -5380,7 +5080,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>23854</v>
+        <v>23858</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -5388,7 +5088,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>23857</v>
+        <v>23859</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -5396,7 +5096,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>23858</v>
+        <v>23861</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -5404,7 +5104,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>23859</v>
+        <v>23900</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -5412,7 +5112,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>23861</v>
+        <v>23901</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -5420,7 +5120,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>23900</v>
+        <v>23902</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -5428,7 +5128,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>23901</v>
+        <v>24341</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -5436,7 +5136,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>23902</v>
+        <v>25047</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -5444,7 +5144,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>23903</v>
+        <v>25052</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -5452,7 +5152,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>24341</v>
+        <v>25970</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -5460,7 +5160,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>25047</v>
+        <v>26292</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -5468,7 +5168,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>25052</v>
+        <v>26569</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -5476,7 +5176,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>25970</v>
+        <v>26570</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -5484,7 +5184,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>26292</v>
+        <v>26833</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -5492,7 +5192,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>26569</v>
+        <v>26871</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -5500,7 +5200,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>26570</v>
+        <v>27690</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -5508,7 +5208,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>26833</v>
+        <v>27913</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -5516,7 +5216,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>26871</v>
+        <v>27914</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -5524,7 +5224,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>27690</v>
+        <v>27915</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -5532,7 +5232,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>27913</v>
+        <v>27917</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -5540,7 +5240,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>27914</v>
+        <v>27918</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -5548,7 +5248,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>27915</v>
+        <v>27919</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
@@ -5556,7 +5256,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>27917</v>
+        <v>27920</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -5564,7 +5264,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>27918</v>
+        <v>27921</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -5572,7 +5272,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>27919</v>
+        <v>27922</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -5580,7 +5280,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>27920</v>
+        <v>27939</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -5588,7 +5288,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>27921</v>
+        <v>29630</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -5596,7 +5296,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>27922</v>
+        <v>29661</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -5604,7 +5304,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>27939</v>
+        <v>29872</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -5612,7 +5312,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>29630</v>
+        <v>29873</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -5620,7 +5320,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>29661</v>
+        <v>29874</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -5628,7 +5328,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>29872</v>
+        <v>29962</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
@@ -5636,7 +5336,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>29873</v>
+        <v>29970</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -5644,7 +5344,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>29874</v>
+        <v>29973</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
@@ -5652,7 +5352,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>29962</v>
+        <v>29979</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -5660,7 +5360,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>29970</v>
+        <v>29980</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -5668,7 +5368,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>29973</v>
+        <v>29983</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
@@ -5676,7 +5376,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>29979</v>
+        <v>30068</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
@@ -5684,7 +5384,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>29980</v>
+        <v>30069</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -5692,7 +5392,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>29983</v>
+        <v>30086</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
@@ -5700,7 +5400,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>30068</v>
+        <v>30087</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
@@ -5708,7 +5408,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>30069</v>
+        <v>30212</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
@@ -5716,7 +5416,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>30086</v>
+        <v>30301</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
@@ -5724,7 +5424,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>30087</v>
+        <v>30304</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -5732,7 +5432,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>30212</v>
+        <v>30401</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
@@ -5740,7 +5440,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>30301</v>
+        <v>30412</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
@@ -5748,7 +5448,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>30304</v>
+        <v>30413</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
@@ -5756,7 +5456,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>30401</v>
+        <v>30415</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
@@ -5764,7 +5464,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>30412</v>
+        <v>30416</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -5772,7 +5472,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>30413</v>
+        <v>30421</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
@@ -5780,7 +5480,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>30415</v>
+        <v>30518</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
@@ -5788,7 +5488,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>30416</v>
+        <v>30522</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -5796,7 +5496,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>30421</v>
+        <v>30523</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
@@ -5804,7 +5504,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>30518</v>
+        <v>30524</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
@@ -5812,7 +5512,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>30522</v>
+        <v>30525</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -5820,7 +5520,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>30523</v>
+        <v>30630</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
@@ -5828,7 +5528,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>30524</v>
+        <v>30640</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
@@ -5836,7 +5536,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>30525</v>
+        <v>30882</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -5844,7 +5544,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>30630</v>
+        <v>30890</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -5852,7 +5552,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>30640</v>
+        <v>30898</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -5860,7 +5560,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>30882</v>
+        <v>30940</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
@@ -5868,7 +5568,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>30890</v>
+        <v>30941</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
@@ -5876,7 +5576,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>30898</v>
+        <v>30942</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
@@ -5884,7 +5584,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>30940</v>
+        <v>30943</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -5892,7 +5592,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>30941</v>
+        <v>30944</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
@@ -5900,7 +5600,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>30942</v>
+        <v>30949</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
@@ -5908,7 +5608,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>30943</v>
+        <v>30950</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
@@ -5916,7 +5616,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>30944</v>
+        <v>31010</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
@@ -5924,7 +5624,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>30949</v>
+        <v>31027</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
@@ -5932,7 +5632,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>30950</v>
+        <v>31089</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
@@ -5940,7 +5640,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>31010</v>
+        <v>31224</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
@@ -5948,7 +5648,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>31027</v>
+        <v>31267</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
@@ -5956,7 +5656,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>31089</v>
+        <v>2414</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
@@ -5964,7 +5664,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>31224</v>
+        <v>4097</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
@@ -5972,7 +5672,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>31267</v>
+        <v>4478</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
@@ -5980,7 +5680,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>275</v>
+        <v>4507</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
@@ -5988,7 +5688,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>2414</v>
+        <v>6134</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
@@ -5996,7 +5696,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>4097</v>
+        <v>6913</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
@@ -6004,7 +5704,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>4478</v>
+        <v>9456</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
@@ -6012,7 +5712,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>4507</v>
+        <v>9840</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
@@ -6020,7 +5720,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>6134</v>
+        <v>29924</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -6028,7 +5728,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>6696</v>
+        <v>30897</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
@@ -6036,7 +5736,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>6913</v>
+        <v>28617</v>
       </c>
       <c r="B211" t="s">
         <v>3</v>
@@ -6044,7 +5744,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>9456</v>
+        <v>28505</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
@@ -6052,7 +5752,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>9840</v>
+        <v>28506</v>
       </c>
       <c r="B213" t="s">
         <v>3</v>
@@ -6060,7 +5760,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>29803</v>
+        <v>28635</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
@@ -6068,65 +5768,9 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>29924</v>
+        <v>23778</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216">
-        <v>30897</v>
-      </c>
-      <c r="B216" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217">
-        <v>28617</v>
-      </c>
-      <c r="B217" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218">
-        <v>28505</v>
-      </c>
-      <c r="B218" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219">
-        <v>28506</v>
-      </c>
-      <c r="B219" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220">
-        <v>30852</v>
-      </c>
-      <c r="B220" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221">
-        <v>28635</v>
-      </c>
-      <c r="B221" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222">
-        <v>23778</v>
-      </c>
-      <c r="B222" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6134,6 +5778,9 @@
   <sortState ref="A2:B198">
     <sortCondition ref="A2:A198"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A215">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model/node_lists.xlsx
+++ b/Model/node_lists.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lprieto\Documents\Fall 2020\ENVR 890\NCGridMod\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkern\Documents\GitHub\NCGridMod\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7220" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7220"/>
   </bookViews>
   <sheets>
     <sheet name="generation_only" sheetId="1" r:id="rId1"/>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B179"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4031,8 +4031,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B338">
-    <sortCondition ref="A2:A338"/>
+  <sortState ref="A2:B313">
+    <sortCondition ref="A2:A313"/>
   </sortState>
   <conditionalFormatting sqref="A2:A313">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
@@ -4045,8 +4045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>18493</v>
+        <v>2414</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>18688</v>
+        <v>4097</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>18689</v>
+        <v>4478</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>18690</v>
+        <v>4507</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>18691</v>
+        <v>6134</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>18692</v>
+        <v>6913</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>18693</v>
+        <v>9456</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>18694</v>
+        <v>9840</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>18696</v>
+        <v>18493</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>18697</v>
+        <v>18688</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>18698</v>
+        <v>18689</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>18699</v>
+        <v>18690</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -4160,7 +4160,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>18700</v>
+        <v>18691</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>18703</v>
+        <v>18692</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>18704</v>
+        <v>18693</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -4184,7 +4184,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>18705</v>
+        <v>18694</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>18706</v>
+        <v>18696</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18707</v>
+        <v>18697</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>18708</v>
+        <v>18698</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -4216,7 +4216,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>18709</v>
+        <v>18699</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>18710</v>
+        <v>18700</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>18865</v>
+        <v>18703</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>18866</v>
+        <v>18704</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -4248,7 +4248,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>18867</v>
+        <v>18705</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>18868</v>
+        <v>18706</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>18869</v>
+        <v>18707</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>18870</v>
+        <v>18708</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>18990</v>
+        <v>18709</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>18992</v>
+        <v>18710</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>19221</v>
+        <v>18865</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>19222</v>
+        <v>18866</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>19223</v>
+        <v>18867</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>19224</v>
+        <v>18868</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>19230</v>
+        <v>18869</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>19233</v>
+        <v>18870</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>19358</v>
+        <v>18990</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>19634</v>
+        <v>18992</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>20153</v>
+        <v>19221</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>20311</v>
+        <v>19222</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>20562</v>
+        <v>19223</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>20880</v>
+        <v>19224</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -4392,7 +4392,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>20881</v>
+        <v>19230</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>20882</v>
+        <v>19233</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>20883</v>
+        <v>19358</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>20895</v>
+        <v>19634</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -4424,7 +4424,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>20896</v>
+        <v>20153</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -4432,7 +4432,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>20897</v>
+        <v>20311</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>21118</v>
+        <v>20562</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>21135</v>
+        <v>20880</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>21284</v>
+        <v>20881</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -4464,7 +4464,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>21285</v>
+        <v>20882</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>22425</v>
+        <v>20883</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>22426</v>
+        <v>20895</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>22427</v>
+        <v>20896</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>22521</v>
+        <v>20897</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>22537</v>
+        <v>21118</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>22538</v>
+        <v>21135</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>22539</v>
+        <v>21284</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>22540</v>
+        <v>21285</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>22541</v>
+        <v>22425</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -4544,7 +4544,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>22542</v>
+        <v>22426</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -4552,7 +4552,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>22543</v>
+        <v>22427</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>22544</v>
+        <v>22521</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>22546</v>
+        <v>22537</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>22548</v>
+        <v>22538</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>22549</v>
+        <v>22539</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>22589</v>
+        <v>22540</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>22590</v>
+        <v>22541</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>22591</v>
+        <v>22542</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>22592</v>
+        <v>22543</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>22602</v>
+        <v>22544</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>22609</v>
+        <v>22546</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>22611</v>
+        <v>22548</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>22612</v>
+        <v>22549</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>22779</v>
+        <v>22589</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>22813</v>
+        <v>22590</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>22814</v>
+        <v>22591</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>22815</v>
+        <v>22592</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>22816</v>
+        <v>22602</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>22817</v>
+        <v>22609</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>22818</v>
+        <v>22611</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>22867</v>
+        <v>22612</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -4720,7 +4720,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>22868</v>
+        <v>22779</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>23582</v>
+        <v>22813</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>23583</v>
+        <v>22814</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -4744,7 +4744,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>23584</v>
+        <v>22815</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>23585</v>
+        <v>22816</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>23586</v>
+        <v>22817</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>23598</v>
+        <v>22818</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -4776,7 +4776,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>23599</v>
+        <v>22867</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>23600</v>
+        <v>22868</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>23766</v>
+        <v>23582</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>23767</v>
+        <v>23583</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>23768</v>
+        <v>23584</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>23769</v>
+        <v>23585</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>23770</v>
+        <v>23586</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>23771</v>
+        <v>23598</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>23772</v>
+        <v>23599</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>23773</v>
+        <v>23600</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>23774</v>
+        <v>23766</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>23776</v>
+        <v>23767</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>23777</v>
+        <v>23768</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>23779</v>
+        <v>23769</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>23780</v>
+        <v>23770</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>23781</v>
+        <v>23771</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>23782</v>
+        <v>23772</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>23783</v>
+        <v>23773</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>23784</v>
+        <v>23774</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>23785</v>
+        <v>23776</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>23786</v>
+        <v>23777</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>23787</v>
+        <v>23778</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>23788</v>
+        <v>23779</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>23789</v>
+        <v>23780</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>23790</v>
+        <v>23781</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -4976,7 +4976,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>23792</v>
+        <v>23782</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>23793</v>
+        <v>23783</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>23842</v>
+        <v>23784</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>23843</v>
+        <v>23785</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>23844</v>
+        <v>23786</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>23845</v>
+        <v>23787</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>23846</v>
+        <v>23788</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>23847</v>
+        <v>23789</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>23848</v>
+        <v>23790</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>23849</v>
+        <v>23792</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>23850</v>
+        <v>23793</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -5064,7 +5064,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>23854</v>
+        <v>23842</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>23857</v>
+        <v>23843</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -5080,7 +5080,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>23858</v>
+        <v>23844</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>23859</v>
+        <v>23845</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -5096,7 +5096,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>23861</v>
+        <v>23846</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>23900</v>
+        <v>23847</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>23901</v>
+        <v>23848</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>23902</v>
+        <v>23849</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>24341</v>
+        <v>23850</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>25047</v>
+        <v>23854</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>25052</v>
+        <v>23857</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>25970</v>
+        <v>23858</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>26292</v>
+        <v>23859</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -5168,7 +5168,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>26569</v>
+        <v>23861</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>26570</v>
+        <v>23900</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>26833</v>
+        <v>23901</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>26871</v>
+        <v>23902</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>27690</v>
+        <v>24341</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>27913</v>
+        <v>25047</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>27914</v>
+        <v>25052</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>27915</v>
+        <v>25970</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>27917</v>
+        <v>26292</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>27918</v>
+        <v>26569</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>27919</v>
+        <v>26570</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>27920</v>
+        <v>26833</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>27921</v>
+        <v>26871</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>27922</v>
+        <v>27690</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>27939</v>
+        <v>27913</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>29630</v>
+        <v>27914</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>29661</v>
+        <v>27915</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>29872</v>
+        <v>27917</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>29873</v>
+        <v>27918</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>29874</v>
+        <v>27919</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>29962</v>
+        <v>27920</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>29970</v>
+        <v>27921</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>29973</v>
+        <v>27922</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>29979</v>
+        <v>27939</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>29980</v>
+        <v>28505</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>29983</v>
+        <v>28506</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>30068</v>
+        <v>28617</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>30069</v>
+        <v>28635</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>30086</v>
+        <v>29630</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>30087</v>
+        <v>29661</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>30212</v>
+        <v>29872</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>30301</v>
+        <v>29873</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>30304</v>
+        <v>29874</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>30401</v>
+        <v>29924</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>30412</v>
+        <v>29962</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>30413</v>
+        <v>29970</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>30415</v>
+        <v>29973</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>30416</v>
+        <v>29979</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>30421</v>
+        <v>29980</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>30518</v>
+        <v>29983</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>30522</v>
+        <v>30068</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>30523</v>
+        <v>30069</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>30524</v>
+        <v>30086</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>30525</v>
+        <v>30087</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>30630</v>
+        <v>30212</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>30640</v>
+        <v>30301</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>30882</v>
+        <v>30304</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>30890</v>
+        <v>30401</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>30898</v>
+        <v>30412</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>30940</v>
+        <v>30413</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>30941</v>
+        <v>30415</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>30942</v>
+        <v>30416</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>30943</v>
+        <v>30421</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>30944</v>
+        <v>30518</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>30949</v>
+        <v>30522</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>30950</v>
+        <v>30523</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>31010</v>
+        <v>30524</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>31027</v>
+        <v>30525</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>31089</v>
+        <v>30630</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>31224</v>
+        <v>30640</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>31267</v>
+        <v>30882</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>2414</v>
+        <v>30890</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>4097</v>
+        <v>30897</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>4478</v>
+        <v>30898</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>4507</v>
+        <v>30940</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>6134</v>
+        <v>30941</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>6913</v>
+        <v>30942</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>9456</v>
+        <v>30943</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>9840</v>
+        <v>30944</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>29924</v>
+        <v>30949</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>30897</v>
+        <v>30950</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>28617</v>
+        <v>31010</v>
       </c>
       <c r="B211" t="s">
         <v>3</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>28505</v>
+        <v>31027</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>28506</v>
+        <v>31089</v>
       </c>
       <c r="B213" t="s">
         <v>3</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>28635</v>
+        <v>31224</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
@@ -5768,15 +5768,15 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>23778</v>
+        <v>31267</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B198">
-    <sortCondition ref="A2:A198"/>
+  <sortState ref="A2:B215">
+    <sortCondition ref="A2:A215"/>
   </sortState>
   <conditionalFormatting sqref="A2:A215">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/Model/node_lists.xlsx
+++ b/Model/node_lists.xlsx
@@ -427,6 +427,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
